--- a/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2021.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="55">
   <si>
     <t>Index of production in manufacturing: Germany, months,
 original and adjusted data, economic activities
@@ -179,7 +179,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:34:16</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:12:22</t>
   </si>
 </sst>
 </file>
@@ -1798,16 +1798,16 @@
         <v>98.3</v>
       </c>
       <c r="N10" t="n" s="10">
-        <v>88.5</v>
-      </c>
-      <c r="O10" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P10" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="s" s="10">
-        <v>23</v>
+        <v>87.9</v>
+      </c>
+      <c r="O10" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="P10" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="Q10" t="n" s="10">
+        <v>92.6</v>
       </c>
       <c r="R10" t="s" s="10">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>90.9</v>
       </c>
       <c r="D11" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="E11" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="F11" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="G11" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="H11" t="n" s="10">
         <v>99.0</v>
@@ -1869,22 +1869,22 @@
         <v>100.5</v>
       </c>
       <c r="L11" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="M11" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="N11" t="n" s="10">
-        <v>90.2</v>
-      </c>
-      <c r="O11" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P11" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q11" t="s" s="10">
-        <v>23</v>
+        <v>89.6</v>
+      </c>
+      <c r="O11" t="n" s="10">
+        <v>93.7</v>
+      </c>
+      <c r="P11" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="Q11" t="n" s="10">
+        <v>95.4</v>
       </c>
       <c r="R11" t="s" s="10">
         <v>23</v>
@@ -1916,52 +1916,52 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="10">
-        <v>98.8</v>
+        <v>98.4</v>
       </c>
       <c r="C12" t="n" s="10">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="D12" t="n" s="10">
-        <v>98.8</v>
+        <v>98.6</v>
       </c>
       <c r="E12" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="F12" t="n" s="10">
+        <v>97.8</v>
+      </c>
+      <c r="G12" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="H12" t="n" s="10">
         <v>97.7</v>
       </c>
-      <c r="G12" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="H12" t="n" s="10">
-        <v>97.8</v>
-      </c>
       <c r="I12" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="J12" t="n" s="10">
         <v>94.4</v>
       </c>
-      <c r="J12" t="n" s="10">
-        <v>94.1</v>
-      </c>
       <c r="K12" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="L12" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="M12" t="n" s="10">
         <v>97.7</v>
       </c>
       <c r="N12" t="n" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="O12" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P12" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q12" t="s" s="10">
-        <v>23</v>
+        <v>99.1</v>
+      </c>
+      <c r="O12" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="P12" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="Q12" t="n" s="10">
+        <v>96.2</v>
       </c>
       <c r="R12" t="s" s="10">
         <v>23</v>
@@ -1993,52 +1993,52 @@
         <v>26</v>
       </c>
       <c r="B13" t="n" s="10">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="C13" t="n" s="10">
-        <v>96.3</v>
+        <v>96.9</v>
       </c>
       <c r="D13" t="n" s="10">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="E13" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="F13" t="n" s="10">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="G13" t="n" s="10">
-        <v>100.0</v>
+        <v>99.5</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="K13" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="L13" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="M13" t="n" s="10">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="N13" t="n" s="10">
-        <v>97.5</v>
-      </c>
-      <c r="O13" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P13" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="s" s="10">
-        <v>23</v>
+        <v>97.6</v>
+      </c>
+      <c r="O13" t="n" s="10">
+        <v>98.8</v>
+      </c>
+      <c r="P13" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="Q13" t="n" s="10">
+        <v>95.7</v>
       </c>
       <c r="R13" t="s" s="10">
         <v>23</v>
@@ -2070,52 +2070,52 @@
         <v>27</v>
       </c>
       <c r="B14" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="D14" t="n" s="10">
-        <v>98.2</v>
+        <v>98.0</v>
       </c>
       <c r="E14" t="n" s="10">
-        <v>98.3</v>
+        <v>97.9</v>
       </c>
       <c r="F14" t="n" s="10">
-        <v>98.4</v>
+        <v>97.9</v>
       </c>
       <c r="G14" t="n" s="10">
-        <v>98.4</v>
+        <v>97.9</v>
       </c>
       <c r="H14" t="n" s="10">
-        <v>98.1</v>
+        <v>97.8</v>
       </c>
       <c r="I14" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="J14" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="K14" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="L14" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="M14" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="N14" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="O14" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="P14" t="n" s="10">
         <v>96.2</v>
       </c>
-      <c r="N14" t="n" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="O14" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P14" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q14" t="s" s="10">
-        <v>23</v>
+      <c r="Q14" t="n" s="10">
+        <v>96.0</v>
       </c>
       <c r="R14" t="s" s="10">
         <v>23</v>
@@ -2188,16 +2188,16 @@
         <v>93.5</v>
       </c>
       <c r="N16" t="n" s="10">
-        <v>89.3</v>
-      </c>
-      <c r="O16" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P16" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q16" t="s" s="10">
-        <v>23</v>
+        <v>88.6</v>
+      </c>
+      <c r="O16" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="P16" t="n" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="Q16" t="n" s="10">
+        <v>89.6</v>
       </c>
       <c r="R16" t="s" s="10">
         <v>23</v>
@@ -2235,7 +2235,7 @@
         <v>91.2</v>
       </c>
       <c r="D17" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="E17" t="n" s="10">
         <v>94.4</v>
@@ -2244,7 +2244,7 @@
         <v>93.1</v>
       </c>
       <c r="G17" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="H17" t="n" s="10">
         <v>95.0</v>
@@ -2259,22 +2259,22 @@
         <v>96.6</v>
       </c>
       <c r="L17" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="M17" t="n" s="10">
-        <v>90.6</v>
+        <v>90.4</v>
       </c>
       <c r="N17" t="n" s="10">
-        <v>90.9</v>
-      </c>
-      <c r="O17" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P17" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q17" t="s" s="10">
-        <v>23</v>
+        <v>90.3</v>
+      </c>
+      <c r="O17" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="P17" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="Q17" t="n" s="10">
+        <v>92.2</v>
       </c>
       <c r="R17" t="s" s="10">
         <v>23</v>
@@ -2306,31 +2306,31 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="10">
-        <v>96.8</v>
+        <v>96.4</v>
       </c>
       <c r="C18" t="n" s="10">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="D18" t="n" s="10">
-        <v>95.4</v>
+        <v>95.2</v>
       </c>
       <c r="E18" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="F18" t="n" s="10">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="G18" t="n" s="10">
-        <v>94.0</v>
+        <v>94.2</v>
       </c>
       <c r="H18" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="I18" t="n" s="10">
-        <v>91.5</v>
+        <v>92.1</v>
       </c>
       <c r="J18" t="n" s="10">
-        <v>90.9</v>
+        <v>91.2</v>
       </c>
       <c r="K18" t="n" s="10">
         <v>93.4</v>
@@ -2339,19 +2339,19 @@
         <v>93.8</v>
       </c>
       <c r="M18" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="N18" t="n" s="10">
         <v>95.8</v>
       </c>
-      <c r="N18" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="O18" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P18" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q18" t="s" s="10">
-        <v>23</v>
+      <c r="O18" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="P18" t="n" s="10">
+        <v>91.9</v>
+      </c>
+      <c r="Q18" t="n" s="10">
+        <v>93.1</v>
       </c>
       <c r="R18" t="s" s="10">
         <v>23</v>
@@ -2383,52 +2383,52 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="10">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="C19" t="n" s="10">
-        <v>93.5</v>
+        <v>94.2</v>
       </c>
       <c r="D19" t="n" s="10">
-        <v>97.4</v>
+        <v>97.0</v>
       </c>
       <c r="E19" t="n" s="10">
-        <v>95.9</v>
+        <v>95.7</v>
       </c>
       <c r="F19" t="n" s="10">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="G19" t="n" s="10">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>96.2</v>
+        <v>96.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="K19" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="L19" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="M19" t="n" s="10">
-        <v>92.4</v>
+        <v>92.7</v>
       </c>
       <c r="N19" t="n" s="10">
         <v>93.9</v>
       </c>
-      <c r="O19" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P19" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q19" t="s" s="10">
-        <v>23</v>
+      <c r="O19" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="P19" t="n" s="10">
+        <v>92.6</v>
+      </c>
+      <c r="Q19" t="n" s="10">
+        <v>92.5</v>
       </c>
       <c r="R19" t="s" s="10">
         <v>23</v>
@@ -2466,46 +2466,46 @@
         <v>94.9</v>
       </c>
       <c r="D20" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="E20" t="n" s="10">
-        <v>95.4</v>
+        <v>95.0</v>
       </c>
       <c r="F20" t="n" s="10">
-        <v>95.6</v>
+        <v>95.0</v>
       </c>
       <c r="G20" t="n" s="10">
-        <v>95.5</v>
+        <v>95.0</v>
       </c>
       <c r="H20" t="n" s="10">
-        <v>95.3</v>
+        <v>94.9</v>
       </c>
       <c r="I20" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="J20" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="K20" t="n" s="10">
-        <v>94.1</v>
+        <v>93.9</v>
       </c>
       <c r="L20" t="n" s="10">
-        <v>93.8</v>
+        <v>93.6</v>
       </c>
       <c r="M20" t="n" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="N20" t="n" s="10">
         <v>93.3</v>
       </c>
-      <c r="N20" t="n" s="10">
+      <c r="O20" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="P20" t="n" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="Q20" t="n" s="10">
         <v>92.7</v>
-      </c>
-      <c r="O20" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P20" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R20" t="s" s="10">
         <v>23</v>
@@ -2578,16 +2578,16 @@
         <v>93.2</v>
       </c>
       <c r="N22" t="n" s="10">
-        <v>88.5</v>
-      </c>
-      <c r="O22" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q22" t="s" s="10">
-        <v>23</v>
+        <v>87.9</v>
+      </c>
+      <c r="O22" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="P22" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="Q22" t="n" s="10">
+        <v>89.5</v>
       </c>
       <c r="R22" t="s" s="10">
         <v>23</v>
@@ -2625,7 +2625,7 @@
         <v>91.6</v>
       </c>
       <c r="D23" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="E23" t="n" s="10">
         <v>95.0</v>
@@ -2634,7 +2634,7 @@
         <v>94.0</v>
       </c>
       <c r="G23" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="H23" t="n" s="10">
         <v>96.4</v>
@@ -2649,22 +2649,22 @@
         <v>96.9</v>
       </c>
       <c r="L23" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="M23" t="n" s="10">
-        <v>90.2</v>
+        <v>90.0</v>
       </c>
       <c r="N23" t="n" s="10">
-        <v>90.2</v>
-      </c>
-      <c r="O23" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P23" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q23" t="s" s="10">
-        <v>23</v>
+        <v>89.6</v>
+      </c>
+      <c r="O23" t="n" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="P23" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="Q23" t="n" s="10">
+        <v>92.3</v>
       </c>
       <c r="R23" t="s" s="10">
         <v>23</v>
@@ -2696,31 +2696,31 @@
         <v>25</v>
       </c>
       <c r="B24" t="n" s="10">
-        <v>97.6</v>
+        <v>97.1</v>
       </c>
       <c r="C24" t="n" s="10">
-        <v>95.4</v>
+        <v>95.2</v>
       </c>
       <c r="D24" t="n" s="10">
-        <v>96.2</v>
+        <v>96.0</v>
       </c>
       <c r="E24" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="F24" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="G24" t="n" s="10">
+        <v>94.9</v>
+      </c>
+      <c r="H24" t="n" s="10">
         <v>95.8</v>
       </c>
-      <c r="F24" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="G24" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="H24" t="n" s="10">
-        <v>95.9</v>
-      </c>
       <c r="I24" t="n" s="10">
-        <v>91.9</v>
+        <v>92.5</v>
       </c>
       <c r="J24" t="n" s="10">
-        <v>91.0</v>
+        <v>91.4</v>
       </c>
       <c r="K24" t="n" s="10">
         <v>93.8</v>
@@ -2729,19 +2729,19 @@
         <v>94.3</v>
       </c>
       <c r="M24" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="N24" t="n" s="10">
         <v>96.4</v>
       </c>
-      <c r="N24" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="O24" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P24" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q24" t="s" s="10">
-        <v>23</v>
+      <c r="O24" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="P24" t="n" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="Q24" t="n" s="10">
+        <v>93.0</v>
       </c>
       <c r="R24" t="s" s="10">
         <v>23</v>
@@ -2773,52 +2773,52 @@
         <v>26</v>
       </c>
       <c r="B25" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="C25" t="n" s="10">
-        <v>94.3</v>
+        <v>95.0</v>
       </c>
       <c r="D25" t="n" s="10">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="E25" t="n" s="10">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
       <c r="F25" t="n" s="10">
-        <v>96.3</v>
+        <v>95.9</v>
       </c>
       <c r="G25" t="n" s="10">
-        <v>98.0</v>
+        <v>97.4</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>96.9</v>
+        <v>96.7</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="K25" t="n" s="10">
         <v>92.7</v>
       </c>
       <c r="L25" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="M25" t="n" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="N25" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="O25" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="P25" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="Q25" t="n" s="10">
         <v>92.7</v>
-      </c>
-      <c r="N25" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="O25" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P25" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q25" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R25" t="s" s="10">
         <v>23</v>
@@ -2856,46 +2856,46 @@
         <v>95.6</v>
       </c>
       <c r="D26" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="E26" t="n" s="10">
-        <v>96.2</v>
+        <v>95.7</v>
       </c>
       <c r="F26" t="n" s="10">
-        <v>96.3</v>
+        <v>95.6</v>
       </c>
       <c r="G26" t="n" s="10">
-        <v>96.2</v>
+        <v>95.6</v>
       </c>
       <c r="H26" t="n" s="10">
-        <v>95.9</v>
+        <v>95.6</v>
       </c>
       <c r="I26" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="J26" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="K26" t="n" s="10">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="L26" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="M26" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="N26" t="n" s="10">
         <v>93.7</v>
       </c>
-      <c r="N26" t="n" s="10">
-        <v>93.0</v>
-      </c>
-      <c r="O26" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P26" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q26" t="s" s="10">
-        <v>23</v>
+      <c r="O26" t="n" s="10">
+        <v>93.6</v>
+      </c>
+      <c r="P26" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="Q26" t="n" s="10">
+        <v>93.1</v>
       </c>
       <c r="R26" t="s" s="10">
         <v>23</v>
@@ -2968,16 +2968,16 @@
         <v>93.1</v>
       </c>
       <c r="N28" t="n" s="10">
-        <v>88.4</v>
-      </c>
-      <c r="O28" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P28" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q28" t="s" s="10">
-        <v>23</v>
+        <v>87.8</v>
+      </c>
+      <c r="O28" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="P28" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="Q28" t="n" s="10">
+        <v>89.3</v>
       </c>
       <c r="R28" t="s" s="10">
         <v>23</v>
@@ -3015,7 +3015,7 @@
         <v>91.3</v>
       </c>
       <c r="D29" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="E29" t="n" s="10">
         <v>94.7</v>
@@ -3024,7 +3024,7 @@
         <v>93.8</v>
       </c>
       <c r="G29" t="n" s="10">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="H29" t="n" s="10">
         <v>96.1</v>
@@ -3039,22 +3039,22 @@
         <v>96.8</v>
       </c>
       <c r="L29" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="M29" t="n" s="10">
-        <v>90.1</v>
+        <v>89.9</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>90.1</v>
-      </c>
-      <c r="O29" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P29" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q29" t="s" s="10">
-        <v>23</v>
+        <v>89.5</v>
+      </c>
+      <c r="O29" t="n" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="P29" t="n" s="10">
+        <v>100.3</v>
+      </c>
+      <c r="Q29" t="n" s="10">
+        <v>92.1</v>
       </c>
       <c r="R29" t="s" s="10">
         <v>23</v>
@@ -3086,52 +3086,52 @@
         <v>25</v>
       </c>
       <c r="B30" t="n" s="10">
-        <v>97.3</v>
+        <v>96.9</v>
       </c>
       <c r="C30" t="n" s="10">
-        <v>95.1</v>
+        <v>94.9</v>
       </c>
       <c r="D30" t="n" s="10">
-        <v>95.9</v>
+        <v>95.7</v>
       </c>
       <c r="E30" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="F30" t="n" s="10">
-        <v>94.7</v>
+        <v>94.9</v>
       </c>
       <c r="G30" t="n" s="10">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="H30" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="I30" t="n" s="10">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="J30" t="n" s="10">
-        <v>90.9</v>
+        <v>91.2</v>
       </c>
       <c r="K30" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="L30" t="n" s="10">
         <v>94.1</v>
       </c>
       <c r="M30" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="N30" t="n" s="10">
         <v>96.2</v>
       </c>
-      <c r="N30" t="n" s="10">
-        <v>97.4</v>
-      </c>
-      <c r="O30" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q30" t="s" s="10">
-        <v>23</v>
+      <c r="O30" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="P30" t="n" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="Q30" t="n" s="10">
+        <v>92.8</v>
       </c>
       <c r="R30" t="s" s="10">
         <v>23</v>
@@ -3163,52 +3163,52 @@
         <v>26</v>
       </c>
       <c r="B31" t="n" s="10">
-        <v>93.7</v>
+        <v>93.9</v>
       </c>
       <c r="C31" t="n" s="10">
-        <v>94.0</v>
+        <v>94.8</v>
       </c>
       <c r="D31" t="n" s="10">
-        <v>98.0</v>
+        <v>97.5</v>
       </c>
       <c r="E31" t="n" s="10">
-        <v>96.3</v>
+        <v>96.1</v>
       </c>
       <c r="F31" t="n" s="10">
-        <v>96.0</v>
+        <v>95.6</v>
       </c>
       <c r="G31" t="n" s="10">
-        <v>97.7</v>
+        <v>97.1</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
       <c r="I31" t="n" s="10">
         <v>95.1</v>
       </c>
       <c r="J31" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="K31" t="n" s="10">
+        <v>92.4</v>
+      </c>
+      <c r="L31" t="n" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="M31" t="n" s="10">
+        <v>92.8</v>
+      </c>
+      <c r="N31" t="n" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="O31" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="P31" t="n" s="10">
         <v>93.0</v>
       </c>
-      <c r="K31" t="n" s="10">
+      <c r="Q31" t="n" s="10">
         <v>92.5</v>
-      </c>
-      <c r="L31" t="n" s="10">
-        <v>91.8</v>
-      </c>
-      <c r="M31" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="N31" t="n" s="10">
-        <v>94.2</v>
-      </c>
-      <c r="O31" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P31" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q31" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R31" t="s" s="10">
         <v>23</v>
@@ -3243,49 +3243,49 @@
         <v>95.0</v>
       </c>
       <c r="C32" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="D32" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="E32" t="n" s="10">
         <v>95.4</v>
       </c>
-      <c r="D32" t="n" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="E32" t="n" s="10">
-        <v>95.9</v>
-      </c>
       <c r="F32" t="n" s="10">
-        <v>96.0</v>
+        <v>95.4</v>
       </c>
       <c r="G32" t="n" s="10">
-        <v>95.9</v>
+        <v>95.4</v>
       </c>
       <c r="H32" t="n" s="10">
-        <v>95.6</v>
+        <v>95.3</v>
       </c>
       <c r="I32" t="n" s="10">
         <v>95.1</v>
       </c>
       <c r="J32" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="K32" t="n" s="10">
-        <v>94.4</v>
+        <v>94.2</v>
       </c>
       <c r="L32" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="M32" t="n" s="10">
+        <v>93.7</v>
+      </c>
+      <c r="N32" t="n" s="10">
         <v>93.5</v>
       </c>
-      <c r="N32" t="n" s="10">
+      <c r="O32" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="P32" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="Q32" t="n" s="10">
         <v>92.9</v>
-      </c>
-      <c r="O32" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P32" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q32" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R32" t="s" s="10">
         <v>23</v>
@@ -3358,16 +3358,16 @@
         <v>90.6</v>
       </c>
       <c r="N34" t="n" s="10">
-        <v>97.5</v>
-      </c>
-      <c r="O34" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P34" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q34" t="s" s="10">
-        <v>23</v>
+        <v>97.9</v>
+      </c>
+      <c r="O34" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="P34" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="Q34" t="n" s="10">
+        <v>98.1</v>
       </c>
       <c r="R34" t="s" s="10">
         <v>23</v>
@@ -3435,16 +3435,16 @@
         <v>87.5</v>
       </c>
       <c r="N35" t="n" s="10">
-        <v>99.2</v>
-      </c>
-      <c r="O35" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P35" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q35" t="s" s="10">
-        <v>23</v>
+        <v>99.6</v>
+      </c>
+      <c r="O35" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="P35" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="Q35" t="n" s="10">
+        <v>100.8</v>
       </c>
       <c r="R35" t="s" s="10">
         <v>23</v>
@@ -3476,10 +3476,10 @@
         <v>25</v>
       </c>
       <c r="B36" t="n" s="10">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="C36" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="D36" t="n" s="10">
         <v>102.9</v>
@@ -3500,28 +3500,28 @@
         <v>100.6</v>
       </c>
       <c r="J36" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="K36" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="L36" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="M36" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="N36" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="O36" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P36" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q36" t="s" s="10">
-        <v>23</v>
+        <v>102.7</v>
+      </c>
+      <c r="O36" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="P36" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="Q36" t="n" s="10">
+        <v>100.0</v>
       </c>
       <c r="R36" t="s" s="10">
         <v>23</v>
@@ -3553,52 +3553,52 @@
         <v>26</v>
       </c>
       <c r="B37" t="n" s="10">
-        <v>99.4</v>
+        <v>99.8</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="D37" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="E37" t="n" s="10">
-        <v>104.1</v>
+        <v>103.5</v>
       </c>
       <c r="F37" t="n" s="10">
-        <v>108.9</v>
+        <v>108.1</v>
       </c>
       <c r="G37" t="n" s="10">
-        <v>107.3</v>
+        <v>106.6</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>101.0</v>
+        <v>101.3</v>
       </c>
       <c r="K37" t="n" s="10">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="L37" t="n" s="10">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="M37" t="n" s="10">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="N37" t="n" s="10">
-        <v>98.7</v>
-      </c>
-      <c r="O37" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P37" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q37" t="s" s="10">
-        <v>23</v>
+        <v>100.2</v>
+      </c>
+      <c r="O37" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="P37" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="Q37" t="n" s="10">
+        <v>99.2</v>
       </c>
       <c r="R37" t="s" s="10">
         <v>23</v>
@@ -3630,52 +3630,52 @@
         <v>27</v>
       </c>
       <c r="B38" t="n" s="10">
-        <v>101.0</v>
+        <v>100.8</v>
       </c>
       <c r="C38" t="n" s="10">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="D38" t="n" s="10">
-        <v>103.0</v>
+        <v>102.6</v>
       </c>
       <c r="E38" t="n" s="10">
-        <v>103.8</v>
+        <v>102.9</v>
       </c>
       <c r="F38" t="n" s="10">
-        <v>104.4</v>
+        <v>103.2</v>
       </c>
       <c r="G38" t="n" s="10">
-        <v>104.7</v>
+        <v>103.5</v>
       </c>
       <c r="H38" t="n" s="10">
-        <v>104.5</v>
+        <v>103.7</v>
       </c>
       <c r="I38" t="n" s="10">
-        <v>103.8</v>
+        <v>103.5</v>
       </c>
       <c r="J38" t="n" s="10">
         <v>103.1</v>
       </c>
       <c r="K38" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="L38" t="n" s="10">
         <v>101.3</v>
       </c>
       <c r="M38" t="n" s="10">
-        <v>100.2</v>
+        <v>101.1</v>
       </c>
       <c r="N38" t="n" s="10">
-        <v>99.1</v>
-      </c>
-      <c r="O38" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P38" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q38" t="s" s="10">
-        <v>23</v>
+        <v>100.9</v>
+      </c>
+      <c r="O38" t="n" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="P38" t="n" s="10">
+        <v>100.3</v>
+      </c>
+      <c r="Q38" t="n" s="10">
+        <v>99.5</v>
       </c>
       <c r="R38" t="s" s="10">
         <v>23</v>
@@ -3748,16 +3748,16 @@
         <v>93.6</v>
       </c>
       <c r="N40" t="n" s="10">
-        <v>77.7</v>
-      </c>
-      <c r="O40" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P40" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q40" t="s" s="10">
-        <v>23</v>
+        <v>76.5</v>
+      </c>
+      <c r="O40" t="n" s="10">
+        <v>84.3</v>
+      </c>
+      <c r="P40" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="Q40" t="n" s="10">
+        <v>79.1</v>
       </c>
       <c r="R40" t="s" s="10">
         <v>23</v>
@@ -3795,7 +3795,7 @@
         <v>85.6</v>
       </c>
       <c r="D41" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="E41" t="n" s="10">
         <v>88.1</v>
@@ -3804,7 +3804,7 @@
         <v>84.6</v>
       </c>
       <c r="G41" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="H41" t="n" s="10">
         <v>87.6</v>
@@ -3819,22 +3819,22 @@
         <v>87.8</v>
       </c>
       <c r="L41" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="M41" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="N41" t="n" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="O41" t="n" s="10">
+        <v>83.9</v>
+      </c>
+      <c r="P41" t="n" s="10">
         <v>90.6</v>
       </c>
-      <c r="N41" t="n" s="10">
-        <v>79.5</v>
-      </c>
-      <c r="O41" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P41" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q41" t="s" s="10">
-        <v>23</v>
+      <c r="Q41" t="n" s="10">
+        <v>82.0</v>
       </c>
       <c r="R41" t="s" s="10">
         <v>23</v>
@@ -3866,52 +3866,52 @@
         <v>25</v>
       </c>
       <c r="B42" t="n" s="10">
-        <v>92.9</v>
+        <v>92.2</v>
       </c>
       <c r="C42" t="n" s="10">
-        <v>89.5</v>
+        <v>89.2</v>
       </c>
       <c r="D42" t="n" s="10">
-        <v>89.5</v>
+        <v>88.9</v>
       </c>
       <c r="E42" t="n" s="10">
-        <v>89.7</v>
+        <v>89.3</v>
       </c>
       <c r="F42" t="n" s="10">
-        <v>86.6</v>
+        <v>86.9</v>
       </c>
       <c r="G42" t="n" s="10">
-        <v>84.8</v>
+        <v>85.4</v>
       </c>
       <c r="H42" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="I42" t="n" s="10">
-        <v>82.1</v>
+        <v>83.3</v>
       </c>
       <c r="J42" t="n" s="10">
-        <v>80.5</v>
+        <v>81.4</v>
       </c>
       <c r="K42" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="L42" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="M42" t="n" s="10">
-        <v>90.2</v>
+        <v>88.9</v>
       </c>
       <c r="N42" t="n" s="10">
-        <v>91.3</v>
-      </c>
-      <c r="O42" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P42" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q42" t="s" s="10">
-        <v>23</v>
+        <v>89.1</v>
+      </c>
+      <c r="O42" t="n" s="10">
+        <v>87.4</v>
+      </c>
+      <c r="P42" t="n" s="10">
+        <v>82.3</v>
+      </c>
+      <c r="Q42" t="n" s="10">
+        <v>83.0</v>
       </c>
       <c r="R42" t="s" s="10">
         <v>23</v>
@@ -3943,52 +3943,52 @@
         <v>26</v>
       </c>
       <c r="B43" t="n" s="10">
-        <v>89.8</v>
+        <v>88.6</v>
       </c>
       <c r="C43" t="n" s="10">
+        <v>88.9</v>
+      </c>
+      <c r="D43" t="n" s="10">
+        <v>92.8</v>
+      </c>
+      <c r="E43" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="F43" t="n" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="G43" t="n" s="10">
+        <v>88.4</v>
+      </c>
+      <c r="H43" t="n" s="10">
         <v>88.2</v>
       </c>
-      <c r="D43" t="n" s="10">
-        <v>93.2</v>
-      </c>
-      <c r="E43" t="n" s="10">
-        <v>90.4</v>
-      </c>
-      <c r="F43" t="n" s="10">
-        <v>88.8</v>
-      </c>
-      <c r="G43" t="n" s="10">
-        <v>88.6</v>
-      </c>
-      <c r="H43" t="n" s="10">
-        <v>88.0</v>
-      </c>
       <c r="I43" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>83.7</v>
+        <v>84.0</v>
       </c>
       <c r="K43" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="L43" t="n" s="10">
-        <v>83.1</v>
+        <v>82.7</v>
       </c>
       <c r="M43" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="N43" t="n" s="10">
-        <v>87.5</v>
-      </c>
-      <c r="O43" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P43" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q43" t="s" s="10">
-        <v>23</v>
+        <v>86.3</v>
+      </c>
+      <c r="O43" t="n" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="P43" t="n" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="Q43" t="n" s="10">
+        <v>82.9</v>
       </c>
       <c r="R43" t="s" s="10">
         <v>23</v>
@@ -4026,46 +4026,46 @@
         <v>89.5</v>
       </c>
       <c r="D44" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="E44" t="n" s="10">
-        <v>89.3</v>
+        <v>88.8</v>
       </c>
       <c r="F44" t="n" s="10">
-        <v>88.9</v>
+        <v>88.4</v>
       </c>
       <c r="G44" t="n" s="10">
-        <v>88.4</v>
+        <v>88.0</v>
       </c>
       <c r="H44" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="I44" t="n" s="10">
-        <v>86.8</v>
+        <v>87.0</v>
       </c>
       <c r="J44" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="K44" t="n" s="10">
-        <v>86.1</v>
+        <v>85.7</v>
       </c>
       <c r="L44" t="n" s="10">
-        <v>85.8</v>
+        <v>85.2</v>
       </c>
       <c r="M44" t="n" s="10">
-        <v>85.3</v>
+        <v>84.8</v>
       </c>
       <c r="N44" t="n" s="10">
-        <v>84.6</v>
-      </c>
-      <c r="O44" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P44" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q44" t="s" s="10">
-        <v>23</v>
+        <v>84.4</v>
+      </c>
+      <c r="O44" t="n" s="10">
+        <v>84.0</v>
+      </c>
+      <c r="P44" t="n" s="10">
+        <v>83.7</v>
+      </c>
+      <c r="Q44" t="n" s="10">
+        <v>83.3</v>
       </c>
       <c r="R44" t="s" s="10">
         <v>23</v>
@@ -4138,16 +4138,16 @@
         <v>102.9</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>96.5</v>
-      </c>
-      <c r="O46" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P46" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q46" t="s" s="10">
-        <v>23</v>
+        <v>94.2</v>
+      </c>
+      <c r="O46" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="P46" t="n" s="10">
+        <v>117.8</v>
+      </c>
+      <c r="Q46" t="n" s="10">
+        <v>100.8</v>
       </c>
       <c r="R46" t="s" s="10">
         <v>23</v>
@@ -4191,7 +4191,7 @@
         <v>101.9</v>
       </c>
       <c r="F47" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="G47" t="n" s="10">
         <v>106.7</v>
@@ -4215,16 +4215,16 @@
         <v>99.1</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="O47" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P47" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q47" t="s" s="10">
-        <v>23</v>
+        <v>96.6</v>
+      </c>
+      <c r="O47" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="P47" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="Q47" t="n" s="10">
+        <v>104.9</v>
       </c>
       <c r="R47" t="s" s="10">
         <v>23</v>
@@ -4256,52 +4256,52 @@
         <v>25</v>
       </c>
       <c r="B48" t="n" s="10">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="C48" t="n" s="10">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="D48" t="n" s="10">
-        <v>98.4</v>
+        <v>100.1</v>
       </c>
       <c r="E48" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="F48" t="n" s="10">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="G48" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="H48" t="n" s="10">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="I48" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="J48" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="K48" t="n" s="10">
-        <v>105.5</v>
+        <v>105.3</v>
       </c>
       <c r="L48" t="n" s="10">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="M48" t="n" s="10">
-        <v>106.9</v>
+        <v>106.5</v>
       </c>
       <c r="N48" t="n" s="10">
-        <v>105.2</v>
-      </c>
-      <c r="O48" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P48" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q48" t="s" s="10">
-        <v>23</v>
+        <v>103.2</v>
+      </c>
+      <c r="O48" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="P48" t="n" s="10">
+        <v>103.5</v>
+      </c>
+      <c r="Q48" t="n" s="10">
+        <v>107.6</v>
       </c>
       <c r="R48" t="s" s="10">
         <v>23</v>
@@ -4333,52 +4333,52 @@
         <v>26</v>
       </c>
       <c r="B49" t="n" s="10">
-        <v>99.9</v>
+        <v>100.8</v>
       </c>
       <c r="C49" t="n" s="10">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="D49" t="n" s="10">
-        <v>105.4</v>
+        <v>104.5</v>
       </c>
       <c r="E49" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="F49" t="n" s="10">
-        <v>104.8</v>
+        <v>109.3</v>
       </c>
       <c r="G49" t="n" s="10">
-        <v>107.2</v>
+        <v>106.1</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>107.6</v>
+        <v>106.7</v>
       </c>
       <c r="I49" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="J49" t="n" s="10">
+        <v>102.4</v>
+      </c>
+      <c r="K49" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="L49" t="n" s="10">
+        <v>101.5</v>
+      </c>
+      <c r="M49" t="n" s="10">
+        <v>102.3</v>
+      </c>
+      <c r="N49" t="n" s="10">
         <v>104.0</v>
       </c>
-      <c r="J49" t="n" s="10">
-        <v>102.8</v>
-      </c>
-      <c r="K49" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="L49" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="M49" t="n" s="10">
-        <v>102.0</v>
-      </c>
-      <c r="N49" t="n" s="10">
-        <v>104.5</v>
-      </c>
-      <c r="O49" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P49" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q49" t="s" s="10">
-        <v>23</v>
+      <c r="O49" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="P49" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="Q49" t="n" s="10">
+        <v>106.2</v>
       </c>
       <c r="R49" t="s" s="10">
         <v>23</v>
@@ -4410,52 +4410,52 @@
         <v>27</v>
       </c>
       <c r="B50" t="n" s="10">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="C50" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="D50" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="E50" t="n" s="10">
         <v>103.8</v>
       </c>
-      <c r="E50" t="n" s="10">
-        <v>104.2</v>
-      </c>
       <c r="F50" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="G50" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="H50" t="n" s="10">
         <v>104.6</v>
       </c>
-      <c r="G50" t="n" s="10">
+      <c r="I50" t="n" s="10">
+        <v>104.6</v>
+      </c>
+      <c r="J50" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="K50" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="L50" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="M50" t="n" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="N50" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="H50" t="n" s="10">
-        <v>105.0</v>
-      </c>
-      <c r="I50" t="n" s="10">
-        <v>104.7</v>
-      </c>
-      <c r="J50" t="n" s="10">
-        <v>104.6</v>
-      </c>
-      <c r="K50" t="n" s="10">
-        <v>104.4</v>
-      </c>
-      <c r="L50" t="n" s="10">
-        <v>104.2</v>
-      </c>
-      <c r="M50" t="n" s="10">
-        <v>103.8</v>
-      </c>
-      <c r="N50" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="O50" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P50" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q50" t="s" s="10">
-        <v>23</v>
+      <c r="O50" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="P50" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="Q50" t="n" s="10">
+        <v>106.0</v>
       </c>
       <c r="R50" t="s" s="10">
         <v>23</v>
@@ -4528,16 +4528,16 @@
         <v>97.2</v>
       </c>
       <c r="N52" t="n" s="10">
-        <v>98.9</v>
-      </c>
-      <c r="O52" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P52" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q52" t="s" s="10">
-        <v>23</v>
+        <v>98.0</v>
+      </c>
+      <c r="O52" t="n" s="10">
+        <v>100.9</v>
+      </c>
+      <c r="P52" t="n" s="10">
+        <v>117.5</v>
+      </c>
+      <c r="Q52" t="n" s="10">
+        <v>98.8</v>
       </c>
       <c r="R52" t="s" s="10">
         <v>23</v>
@@ -4584,7 +4584,7 @@
         <v>95.8</v>
       </c>
       <c r="G53" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="H53" t="n" s="10">
         <v>100.9</v>
@@ -4602,19 +4602,19 @@
         <v>107.1</v>
       </c>
       <c r="M53" t="n" s="10">
-        <v>93.9</v>
+        <v>94.1</v>
       </c>
       <c r="N53" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="O53" t="n" s="10">
         <v>100.5</v>
       </c>
-      <c r="O53" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P53" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q53" t="s" s="10">
-        <v>23</v>
+      <c r="P53" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="Q53" t="n" s="10">
+        <v>101.3</v>
       </c>
       <c r="R53" t="s" s="10">
         <v>23</v>
@@ -4646,52 +4646,52 @@
         <v>25</v>
       </c>
       <c r="B54" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="C54" t="n" s="10">
         <v>96.2</v>
       </c>
-      <c r="C54" t="n" s="10">
-        <v>96.6</v>
-      </c>
       <c r="D54" t="n" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="E54" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="F54" t="n" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="G54" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="H54" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="I54" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="J54" t="n" s="10">
         <v>100.5</v>
       </c>
-      <c r="E54" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="F54" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="G54" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="H54" t="n" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="I54" t="n" s="10">
-        <v>99.4</v>
-      </c>
-      <c r="J54" t="n" s="10">
-        <v>100.6</v>
-      </c>
       <c r="K54" t="n" s="10">
-        <v>99.0</v>
+        <v>99.3</v>
       </c>
       <c r="L54" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="M54" t="n" s="10">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="N54" t="n" s="10">
-        <v>104.7</v>
-      </c>
-      <c r="O54" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P54" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q54" t="s" s="10">
-        <v>23</v>
+        <v>102.9</v>
+      </c>
+      <c r="O54" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="P54" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="Q54" t="n" s="10">
+        <v>104.6</v>
       </c>
       <c r="R54" t="s" s="10">
         <v>23</v>
@@ -4723,52 +4723,52 @@
         <v>26</v>
       </c>
       <c r="B55" t="n" s="10">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="C55" t="n" s="10">
-        <v>95.9</v>
+        <v>95.6</v>
       </c>
       <c r="D55" t="n" s="10">
-        <v>99.3</v>
+        <v>99.1</v>
       </c>
       <c r="E55" t="n" s="10">
-        <v>99.3</v>
+        <v>98.9</v>
       </c>
       <c r="F55" t="n" s="10">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="G55" t="n" s="10">
-        <v>101.0</v>
+        <v>100.6</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="K55" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="L55" t="n" s="10">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="M55" t="n" s="10">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="N55" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="O55" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P55" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q55" t="s" s="10">
-        <v>23</v>
+        <v>103.9</v>
+      </c>
+      <c r="O55" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="P55" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="Q55" t="n" s="10">
+        <v>106.7</v>
       </c>
       <c r="R55" t="s" s="10">
         <v>23</v>
@@ -4800,52 +4800,52 @@
         <v>27</v>
       </c>
       <c r="B56" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="C56" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="D56" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="E56" t="n" s="10">
-        <v>98.3</v>
+        <v>98.1</v>
       </c>
       <c r="F56" t="n" s="10">
-        <v>98.8</v>
+        <v>98.4</v>
       </c>
       <c r="G56" t="n" s="10">
-        <v>99.2</v>
+        <v>98.9</v>
       </c>
       <c r="H56" t="n" s="10">
-        <v>99.6</v>
+        <v>99.4</v>
       </c>
       <c r="I56" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="J56" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="K56" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="L56" t="n" s="10">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="M56" t="n" s="10">
-        <v>101.4</v>
+        <v>102.5</v>
       </c>
       <c r="N56" t="n" s="10">
-        <v>101.7</v>
-      </c>
-      <c r="O56" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P56" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q56" t="s" s="10">
-        <v>23</v>
+        <v>103.5</v>
+      </c>
+      <c r="O56" t="n" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="P56" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="Q56" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="R56" t="s" s="10">
         <v>23</v>
@@ -4918,16 +4918,16 @@
         <v>98.1</v>
       </c>
       <c r="N58" t="n" s="10">
-        <v>98.5</v>
-      </c>
-      <c r="O58" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P58" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q58" t="s" s="10">
-        <v>23</v>
+        <v>97.4</v>
+      </c>
+      <c r="O58" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="P58" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="Q58" t="n" s="10">
+        <v>99.2</v>
       </c>
       <c r="R58" t="s" s="10">
         <v>23</v>
@@ -4974,7 +4974,7 @@
         <v>96.6</v>
       </c>
       <c r="G59" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="H59" t="n" s="10">
         <v>101.2</v>
@@ -4992,19 +4992,19 @@
         <v>108.3</v>
       </c>
       <c r="M59" t="n" s="10">
-        <v>94.8</v>
+        <v>95.0</v>
       </c>
       <c r="N59" t="n" s="10">
-        <v>100.2</v>
-      </c>
-      <c r="O59" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P59" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q59" t="s" s="10">
-        <v>23</v>
+        <v>99.1</v>
+      </c>
+      <c r="O59" t="n" s="10">
+        <v>101.3</v>
+      </c>
+      <c r="P59" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="Q59" t="n" s="10">
+        <v>101.9</v>
       </c>
       <c r="R59" t="s" s="10">
         <v>23</v>
@@ -5036,52 +5036,52 @@
         <v>25</v>
       </c>
       <c r="B60" t="n" s="10">
-        <v>97.1</v>
+        <v>96.6</v>
       </c>
       <c r="C60" t="n" s="10">
-        <v>97.4</v>
+        <v>96.9</v>
       </c>
       <c r="D60" t="n" s="10">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="E60" t="n" s="10">
-        <v>96.1</v>
+        <v>96.6</v>
       </c>
       <c r="F60" t="n" s="10">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="G60" t="n" s="10">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="H60" t="n" s="10">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="I60" t="n" s="10">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="J60" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="K60" t="n" s="10">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="L60" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="M60" t="n" s="10">
-        <v>100.8</v>
+        <v>101.2</v>
       </c>
       <c r="N60" t="n" s="10">
-        <v>104.8</v>
-      </c>
-      <c r="O60" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P60" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q60" t="s" s="10">
-        <v>23</v>
+        <v>103.0</v>
+      </c>
+      <c r="O60" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="P60" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="Q60" t="n" s="10">
+        <v>105.1</v>
       </c>
       <c r="R60" t="s" s="10">
         <v>23</v>
@@ -5113,52 +5113,52 @@
         <v>26</v>
       </c>
       <c r="B61" t="n" s="10">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="C61" t="n" s="10">
-        <v>97.0</v>
+        <v>96.7</v>
       </c>
       <c r="D61" t="n" s="10">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="E61" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="F61" t="n" s="10">
-        <v>99.4</v>
+        <v>99.2</v>
       </c>
       <c r="G61" t="n" s="10">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="I61" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="J61" t="n" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="K61" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="L61" t="n" s="10">
+        <v>101.2</v>
+      </c>
+      <c r="M61" t="n" s="10">
         <v>100.7</v>
       </c>
-      <c r="K61" t="n" s="10">
-        <v>100.5</v>
-      </c>
-      <c r="L61" t="n" s="10">
-        <v>101.0</v>
-      </c>
-      <c r="M61" t="n" s="10">
-        <v>100.1</v>
-      </c>
       <c r="N61" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="O61" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P61" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q61" t="s" s="10">
-        <v>23</v>
+        <v>104.1</v>
+      </c>
+      <c r="O61" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="P61" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="Q61" t="n" s="10">
+        <v>106.0</v>
       </c>
       <c r="R61" t="s" s="10">
         <v>23</v>
@@ -5190,52 +5190,52 @@
         <v>27</v>
       </c>
       <c r="B62" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="C62" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="D62" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="E62" t="n" s="10">
-        <v>99.2</v>
+        <v>99.0</v>
       </c>
       <c r="F62" t="n" s="10">
-        <v>99.6</v>
+        <v>99.4</v>
       </c>
       <c r="G62" t="n" s="10">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="H62" t="n" s="10">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="I62" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="J62" t="n" s="10">
         <v>101.1</v>
       </c>
       <c r="K62" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="L62" t="n" s="10">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
       <c r="M62" t="n" s="10">
-        <v>101.9</v>
+        <v>102.9</v>
       </c>
       <c r="N62" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="O62" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P62" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q62" t="s" s="10">
-        <v>23</v>
+        <v>103.7</v>
+      </c>
+      <c r="O62" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="P62" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="Q62" t="n" s="10">
+        <v>105.9</v>
       </c>
       <c r="R62" t="s" s="10">
         <v>23</v>
@@ -5308,16 +5308,16 @@
         <v>96.4</v>
       </c>
       <c r="N64" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="O64" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P64" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q64" t="s" s="10">
-        <v>23</v>
+        <v>98.1</v>
+      </c>
+      <c r="O64" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="P64" t="n" s="10">
+        <v>89.0</v>
+      </c>
+      <c r="Q64" t="n" s="10">
+        <v>90.8</v>
       </c>
       <c r="R64" t="s" s="10">
         <v>23</v>
@@ -5382,19 +5382,19 @@
         <v>93.1</v>
       </c>
       <c r="M65" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="N65" t="n" s="10">
-        <v>99.6</v>
-      </c>
-      <c r="O65" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P65" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q65" t="s" s="10">
-        <v>23</v>
+        <v>98.4</v>
+      </c>
+      <c r="O65" t="n" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="P65" t="n" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="Q65" t="n" s="10">
+        <v>91.2</v>
       </c>
       <c r="R65" t="s" s="10">
         <v>23</v>
@@ -5426,52 +5426,52 @@
         <v>25</v>
       </c>
       <c r="B66" t="n" s="10">
-        <v>86.7</v>
+        <v>87.0</v>
       </c>
       <c r="C66" t="n" s="10">
-        <v>84.4</v>
+        <v>83.9</v>
       </c>
       <c r="D66" t="n" s="10">
-        <v>84.8</v>
+        <v>85.0</v>
       </c>
       <c r="E66" t="n" s="10">
-        <v>89.6</v>
+        <v>89.8</v>
       </c>
       <c r="F66" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="G66" t="n" s="10">
-        <v>85.6</v>
+        <v>85.8</v>
       </c>
       <c r="H66" t="n" s="10">
-        <v>83.1</v>
+        <v>83.5</v>
       </c>
       <c r="I66" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="J66" t="n" s="10">
-        <v>89.6</v>
+        <v>89.1</v>
       </c>
       <c r="K66" t="n" s="10">
-        <v>88.9</v>
+        <v>88.7</v>
       </c>
       <c r="L66" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="M66" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="N66" t="n" s="10">
-        <v>88.5</v>
-      </c>
-      <c r="O66" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P66" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q66" t="s" s="10">
-        <v>23</v>
+        <v>87.8</v>
+      </c>
+      <c r="O66" t="n" s="10">
+        <v>91.4</v>
+      </c>
+      <c r="P66" t="n" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="Q66" t="n" s="10">
+        <v>94.6</v>
       </c>
       <c r="R66" t="s" s="10">
         <v>23</v>
@@ -5503,52 +5503,52 @@
         <v>26</v>
       </c>
       <c r="B67" t="n" s="10">
-        <v>85.1</v>
+        <v>85.5</v>
       </c>
       <c r="C67" t="n" s="10">
-        <v>84.1</v>
+        <v>83.7</v>
       </c>
       <c r="D67" t="n" s="10">
-        <v>85.9</v>
+        <v>86.7</v>
       </c>
       <c r="E67" t="n" s="10">
-        <v>87.1</v>
+        <v>86.7</v>
       </c>
       <c r="F67" t="n" s="10">
-        <v>90.5</v>
+        <v>90.1</v>
       </c>
       <c r="G67" t="n" s="10">
-        <v>87.4</v>
+        <v>87.2</v>
       </c>
       <c r="H67" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="I67" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="J67" t="n" s="10">
         <v>88.3</v>
       </c>
       <c r="K67" t="n" s="10">
-        <v>87.3</v>
+        <v>87.1</v>
       </c>
       <c r="L67" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="M67" t="n" s="10">
-        <v>87.6</v>
+        <v>88.0</v>
       </c>
       <c r="N67" t="n" s="10">
-        <v>87.2</v>
-      </c>
-      <c r="O67" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P67" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q67" t="s" s="10">
-        <v>23</v>
+        <v>86.9</v>
+      </c>
+      <c r="O67" t="n" s="10">
+        <v>91.2</v>
+      </c>
+      <c r="P67" t="n" s="10">
+        <v>85.3</v>
+      </c>
+      <c r="Q67" t="n" s="10">
+        <v>90.2</v>
       </c>
       <c r="R67" t="s" s="10">
         <v>23</v>
@@ -5580,7 +5580,7 @@
         <v>27</v>
       </c>
       <c r="B68" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="C68" t="n" s="10">
         <v>86.1</v>
@@ -5589,19 +5589,19 @@
         <v>86.4</v>
       </c>
       <c r="E68" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="F68" t="n" s="10">
-        <v>87.0</v>
+        <v>86.8</v>
       </c>
       <c r="G68" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="H68" t="n" s="10">
         <v>87.3</v>
       </c>
-      <c r="H68" t="n" s="10">
+      <c r="I68" t="n" s="10">
         <v>87.5</v>
-      </c>
-      <c r="I68" t="n" s="10">
-        <v>87.6</v>
       </c>
       <c r="J68" t="n" s="10">
         <v>87.6</v>
@@ -5610,22 +5610,22 @@
         <v>87.6</v>
       </c>
       <c r="L68" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="M68" t="n" s="10">
-        <v>87.6</v>
+        <v>88.0</v>
       </c>
       <c r="N68" t="n" s="10">
-        <v>87.5</v>
-      </c>
-      <c r="O68" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P68" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q68" t="s" s="10">
-        <v>23</v>
+        <v>88.3</v>
+      </c>
+      <c r="O68" t="n" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="P68" t="n" s="10">
+        <v>88.7</v>
+      </c>
+      <c r="Q68" t="n" s="10">
+        <v>88.8</v>
       </c>
       <c r="R68" t="s" s="10">
         <v>23</v>
@@ -5698,16 +5698,16 @@
         <v>82.1</v>
       </c>
       <c r="N70" t="n" s="10">
-        <v>79.6</v>
-      </c>
-      <c r="O70" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P70" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q70" t="s" s="10">
-        <v>23</v>
+        <v>80.2</v>
+      </c>
+      <c r="O70" t="n" s="10">
+        <v>70.3</v>
+      </c>
+      <c r="P70" t="n" s="10">
+        <v>78.8</v>
+      </c>
+      <c r="Q70" t="n" s="10">
+        <v>78.3</v>
       </c>
       <c r="R70" t="s" s="10">
         <v>23</v>
@@ -5772,19 +5772,19 @@
         <v>80.7</v>
       </c>
       <c r="M71" t="n" s="10">
-        <v>82.4</v>
+        <v>81.8</v>
       </c>
       <c r="N71" t="n" s="10">
-        <v>78.9</v>
-      </c>
-      <c r="O71" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P71" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q71" t="s" s="10">
-        <v>23</v>
+        <v>80.3</v>
+      </c>
+      <c r="O71" t="n" s="10">
+        <v>70.1</v>
+      </c>
+      <c r="P71" t="n" s="10">
+        <v>79.0</v>
+      </c>
+      <c r="Q71" t="n" s="10">
+        <v>77.8</v>
       </c>
       <c r="R71" t="s" s="10">
         <v>23</v>
@@ -5816,52 +5816,52 @@
         <v>25</v>
       </c>
       <c r="B72" t="n" s="10">
-        <v>74.8</v>
+        <v>76.7</v>
       </c>
       <c r="C72" t="n" s="10">
-        <v>70.5</v>
+        <v>67.9</v>
       </c>
       <c r="D72" t="n" s="10">
-        <v>68.8</v>
+        <v>70.0</v>
       </c>
       <c r="E72" t="n" s="10">
-        <v>72.0</v>
+        <v>73.3</v>
       </c>
       <c r="F72" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="G72" t="n" s="10">
-        <v>73.2</v>
+        <v>74.4</v>
       </c>
       <c r="H72" t="n" s="10">
-        <v>67.6</v>
+        <v>70.1</v>
       </c>
       <c r="I72" t="n" s="10">
-        <v>75.1</v>
+        <v>76.3</v>
       </c>
       <c r="J72" t="n" s="10">
-        <v>81.3</v>
+        <v>79.3</v>
       </c>
       <c r="K72" t="n" s="10">
-        <v>85.8</v>
+        <v>82.5</v>
       </c>
       <c r="L72" t="n" s="10">
-        <v>83.0</v>
+        <v>82.5</v>
       </c>
       <c r="M72" t="n" s="10">
-        <v>83.4</v>
+        <v>82.8</v>
       </c>
       <c r="N72" t="n" s="10">
-        <v>76.6</v>
-      </c>
-      <c r="O72" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P72" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q72" t="s" s="10">
-        <v>23</v>
+        <v>80.1</v>
+      </c>
+      <c r="O72" t="n" s="10">
+        <v>70.2</v>
+      </c>
+      <c r="P72" t="n" s="10">
+        <v>75.8</v>
+      </c>
+      <c r="Q72" t="n" s="10">
+        <v>78.6</v>
       </c>
       <c r="R72" t="s" s="10">
         <v>23</v>
@@ -5893,52 +5893,52 @@
         <v>26</v>
       </c>
       <c r="B73" t="n" s="10">
-        <v>72.3</v>
+        <v>72.4</v>
       </c>
       <c r="C73" t="n" s="10">
-        <v>71.9</v>
+        <v>72.7</v>
       </c>
       <c r="D73" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="E73" t="n" s="10">
-        <v>77.0</v>
+        <v>76.3</v>
       </c>
       <c r="F73" t="n" s="10">
         <v>75.2</v>
       </c>
       <c r="G73" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="H73" t="n" s="10">
         <v>73.2</v>
       </c>
       <c r="I73" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="J73" t="n" s="10">
-        <v>78.2</v>
+        <v>78.0</v>
       </c>
       <c r="K73" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="L73" t="n" s="10">
-        <v>79.0</v>
+        <v>78.5</v>
       </c>
       <c r="M73" t="n" s="10">
-        <v>80.3</v>
+        <v>80.1</v>
       </c>
       <c r="N73" t="n" s="10">
-        <v>77.6</v>
-      </c>
-      <c r="O73" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P73" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q73" t="s" s="10">
-        <v>23</v>
+        <v>77.5</v>
+      </c>
+      <c r="O73" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="P73" t="n" s="10">
+        <v>78.9</v>
+      </c>
+      <c r="Q73" t="n" s="10">
+        <v>80.6</v>
       </c>
       <c r="R73" t="s" s="10">
         <v>23</v>
@@ -5970,31 +5970,31 @@
         <v>27</v>
       </c>
       <c r="B74" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="C74" t="n" s="10">
         <v>73.2</v>
       </c>
       <c r="D74" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="E74" t="n" s="10">
-        <v>74.0</v>
+        <v>74.2</v>
       </c>
       <c r="F74" t="n" s="10">
-        <v>74.5</v>
+        <v>74.7</v>
       </c>
       <c r="G74" t="n" s="10">
-        <v>75.1</v>
+        <v>75.3</v>
       </c>
       <c r="H74" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="I74" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="J74" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="K74" t="n" s="10">
         <v>77.7</v>
@@ -6003,19 +6003,19 @@
         <v>78.2</v>
       </c>
       <c r="M74" t="n" s="10">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="N74" t="n" s="10">
-        <v>79.3</v>
-      </c>
-      <c r="O74" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P74" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q74" t="s" s="10">
-        <v>23</v>
+        <v>78.9</v>
+      </c>
+      <c r="O74" t="n" s="10">
+        <v>79.2</v>
+      </c>
+      <c r="P74" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="Q74" t="n" s="10">
+        <v>79.9</v>
       </c>
       <c r="R74" t="s" s="10">
         <v>23</v>
@@ -6088,16 +6088,16 @@
         <v>69.9</v>
       </c>
       <c r="N76" t="n" s="10">
+        <v>61.7</v>
+      </c>
+      <c r="O76" t="n" s="10">
         <v>62.5</v>
       </c>
-      <c r="O76" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P76" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q76" t="s" s="10">
-        <v>23</v>
+      <c r="P76" t="n" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="Q76" t="n" s="10">
+        <v>69.3</v>
       </c>
       <c r="R76" t="s" s="10">
         <v>23</v>
@@ -6135,7 +6135,7 @@
         <v>60.3</v>
       </c>
       <c r="D77" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="E77" t="n" s="10">
         <v>75.0</v>
@@ -6162,19 +6162,19 @@
         <v>76.9</v>
       </c>
       <c r="M77" t="n" s="10">
-        <v>68.1</v>
+        <v>68.0</v>
       </c>
       <c r="N77" t="n" s="10">
-        <v>63.3</v>
-      </c>
-      <c r="O77" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P77" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q77" t="s" s="10">
-        <v>23</v>
+        <v>62.4</v>
+      </c>
+      <c r="O77" t="n" s="10">
+        <v>62.4</v>
+      </c>
+      <c r="P77" t="n" s="10">
+        <v>77.9</v>
+      </c>
+      <c r="Q77" t="n" s="10">
+        <v>70.8</v>
       </c>
       <c r="R77" t="s" s="10">
         <v>23</v>
@@ -6209,49 +6209,49 @@
         <v>76.0</v>
       </c>
       <c r="C78" t="n" s="10">
-        <v>72.3</v>
+        <v>71.7</v>
       </c>
       <c r="D78" t="n" s="10">
-        <v>74.8</v>
+        <v>74.6</v>
       </c>
       <c r="E78" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="F78" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="G78" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="H78" t="n" s="10">
-        <v>72.1</v>
+        <v>72.2</v>
       </c>
       <c r="I78" t="n" s="10">
-        <v>72.4</v>
+        <v>72.6</v>
       </c>
       <c r="J78" t="n" s="10">
-        <v>73.7</v>
+        <v>74.0</v>
       </c>
       <c r="K78" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="L78" t="n" s="10">
-        <v>74.1</v>
+        <v>74.3</v>
       </c>
       <c r="M78" t="n" s="10">
-        <v>77.7</v>
+        <v>77.1</v>
       </c>
       <c r="N78" t="n" s="10">
-        <v>75.0</v>
-      </c>
-      <c r="O78" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P78" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q78" t="s" s="10">
-        <v>23</v>
+        <v>73.9</v>
+      </c>
+      <c r="O78" t="n" s="10">
+        <v>74.9</v>
+      </c>
+      <c r="P78" t="n" s="10">
+        <v>75.8</v>
+      </c>
+      <c r="Q78" t="n" s="10">
+        <v>67.0</v>
       </c>
       <c r="R78" t="s" s="10">
         <v>23</v>
@@ -6286,49 +6286,49 @@
         <v>75.5</v>
       </c>
       <c r="C79" t="n" s="10">
-        <v>72.2</v>
+        <v>71.9</v>
       </c>
       <c r="D79" t="n" s="10">
-        <v>75.5</v>
+        <v>75.0</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>72.2</v>
+        <v>72.6</v>
       </c>
       <c r="F79" t="n" s="10">
+        <v>73.9</v>
+      </c>
+      <c r="G79" t="n" s="10">
+        <v>75.6</v>
+      </c>
+      <c r="H79" t="n" s="10">
+        <v>72.1</v>
+      </c>
+      <c r="I79" t="n" s="10">
+        <v>72.3</v>
+      </c>
+      <c r="J79" t="n" s="10">
+        <v>73.6</v>
+      </c>
+      <c r="K79" t="n" s="10">
+        <v>74.8</v>
+      </c>
+      <c r="L79" t="n" s="10">
+        <v>70.6</v>
+      </c>
+      <c r="M79" t="n" s="10">
+        <v>73.8</v>
+      </c>
+      <c r="N79" t="n" s="10">
+        <v>72.1</v>
+      </c>
+      <c r="O79" t="n" s="10">
         <v>74.0</v>
       </c>
-      <c r="G79" t="n" s="10">
-        <v>75.7</v>
-      </c>
-      <c r="H79" t="n" s="10">
-        <v>72.2</v>
-      </c>
-      <c r="I79" t="n" s="10">
-        <v>72.2</v>
-      </c>
-      <c r="J79" t="n" s="10">
-        <v>73.8</v>
-      </c>
-      <c r="K79" t="n" s="10">
-        <v>74.3</v>
-      </c>
-      <c r="L79" t="n" s="10">
-        <v>70.7</v>
-      </c>
-      <c r="M79" t="n" s="10">
-        <v>73.7</v>
-      </c>
-      <c r="N79" t="n" s="10">
-        <v>72.7</v>
-      </c>
-      <c r="O79" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P79" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q79" t="s" s="10">
-        <v>23</v>
+      <c r="P79" t="n" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="Q79" t="n" s="10">
+        <v>71.0</v>
       </c>
       <c r="R79" t="s" s="10">
         <v>23</v>
@@ -6366,16 +6366,16 @@
         <v>73.5</v>
       </c>
       <c r="D80" t="n" s="10">
-        <v>73.7</v>
+        <v>73.5</v>
       </c>
       <c r="E80" t="n" s="10">
-        <v>73.8</v>
+        <v>73.6</v>
       </c>
       <c r="F80" t="n" s="10">
-        <v>73.8</v>
+        <v>73.6</v>
       </c>
       <c r="G80" t="n" s="10">
-        <v>73.8</v>
+        <v>73.6</v>
       </c>
       <c r="H80" t="n" s="10">
         <v>73.6</v>
@@ -6384,28 +6384,28 @@
         <v>73.5</v>
       </c>
       <c r="J80" t="n" s="10">
+        <v>73.4</v>
+      </c>
+      <c r="K80" t="n" s="10">
         <v>73.3</v>
       </c>
-      <c r="K80" t="n" s="10">
+      <c r="L80" t="n" s="10">
         <v>73.2</v>
       </c>
-      <c r="L80" t="n" s="10">
+      <c r="M80" t="n" s="10">
         <v>73.0</v>
       </c>
-      <c r="M80" t="n" s="10">
-        <v>72.8</v>
-      </c>
       <c r="N80" t="n" s="10">
+        <v>72.9</v>
+      </c>
+      <c r="O80" t="n" s="10">
+        <v>72.7</v>
+      </c>
+      <c r="P80" t="n" s="10">
         <v>72.6</v>
       </c>
-      <c r="O80" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P80" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q80" t="s" s="10">
-        <v>23</v>
+      <c r="Q80" t="n" s="10">
+        <v>72.4</v>
       </c>
       <c r="R80" t="s" s="10">
         <v>23</v>
@@ -6478,16 +6478,16 @@
         <v>93.3</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>88.6</v>
-      </c>
-      <c r="O82" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P82" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q82" t="s" s="10">
-        <v>23</v>
+        <v>88.1</v>
+      </c>
+      <c r="O82" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="P82" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="Q82" t="n" s="10">
+        <v>89.5</v>
       </c>
       <c r="R82" t="s" s="10">
         <v>23</v>
@@ -6525,7 +6525,7 @@
         <v>91.6</v>
       </c>
       <c r="D83" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="E83" t="n" s="10">
         <v>94.9</v>
@@ -6534,7 +6534,7 @@
         <v>93.9</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="H83" t="n" s="10">
         <v>96.3</v>
@@ -6549,22 +6549,22 @@
         <v>96.9</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="M83" t="n" s="10">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="N83" t="n" s="10">
-        <v>90.3</v>
-      </c>
-      <c r="O83" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P83" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q83" t="s" s="10">
-        <v>23</v>
+        <v>89.8</v>
+      </c>
+      <c r="O83" t="n" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="P83" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="Q83" t="n" s="10">
+        <v>92.3</v>
       </c>
       <c r="R83" t="s" s="10">
         <v>23</v>
@@ -6596,52 +6596,52 @@
         <v>25</v>
       </c>
       <c r="B84" t="n" s="10">
-        <v>97.5</v>
+        <v>97.0</v>
       </c>
       <c r="C84" t="n" s="10">
-        <v>95.3</v>
+        <v>95.1</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>95.0</v>
+        <v>95.2</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="H84" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>91.9</v>
+        <v>92.5</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>91.0</v>
+        <v>91.4</v>
       </c>
       <c r="K84" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="M84" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="N84" t="n" s="10">
         <v>96.4</v>
       </c>
-      <c r="N84" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="O84" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P84" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q84" t="s" s="10">
-        <v>23</v>
+      <c r="O84" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="P84" t="n" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="Q84" t="n" s="10">
+        <v>93.1</v>
       </c>
       <c r="R84" t="s" s="10">
         <v>23</v>
@@ -6673,52 +6673,52 @@
         <v>26</v>
       </c>
       <c r="B85" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="C85" t="n" s="10">
-        <v>94.2</v>
+        <v>95.0</v>
       </c>
       <c r="D85" t="n" s="10">
-        <v>98.2</v>
+        <v>97.7</v>
       </c>
       <c r="E85" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="F85" t="n" s="10">
-        <v>96.2</v>
+        <v>95.9</v>
       </c>
       <c r="G85" t="n" s="10">
-        <v>97.9</v>
+        <v>97.4</v>
       </c>
       <c r="H85" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="I85" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="J85" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="K85" t="n" s="10">
+        <v>92.6</v>
+      </c>
+      <c r="L85" t="n" s="10">
+        <v>91.9</v>
+      </c>
+      <c r="M85" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="N85" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="O85" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="P85" t="n" s="10">
         <v>93.2</v>
       </c>
-      <c r="K85" t="n" s="10">
+      <c r="Q85" t="n" s="10">
         <v>92.7</v>
-      </c>
-      <c r="L85" t="n" s="10">
-        <v>92.0</v>
-      </c>
-      <c r="M85" t="n" s="10">
-        <v>92.8</v>
-      </c>
-      <c r="N85" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="O85" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P85" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q85" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R85" t="s" s="10">
         <v>23</v>
@@ -6753,49 +6753,49 @@
         <v>95.2</v>
       </c>
       <c r="C86" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="D86" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="E86" t="n" s="10">
         <v>95.6</v>
       </c>
-      <c r="D86" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="E86" t="n" s="10">
-        <v>96.1</v>
-      </c>
       <c r="F86" t="n" s="10">
-        <v>96.2</v>
+        <v>95.6</v>
       </c>
       <c r="G86" t="n" s="10">
-        <v>96.2</v>
+        <v>95.6</v>
       </c>
       <c r="H86" t="n" s="10">
-        <v>95.9</v>
+        <v>95.5</v>
       </c>
       <c r="I86" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="J86" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="K86" t="n" s="10">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="L86" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="M86" t="n" s="10">
-        <v>93.7</v>
+        <v>93.9</v>
       </c>
       <c r="N86" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="O86" t="n" s="10">
+        <v>93.6</v>
+      </c>
+      <c r="P86" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="Q86" t="n" s="10">
         <v>93.1</v>
-      </c>
-      <c r="O86" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P86" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q86" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R86" t="s" s="10">
         <v>23</v>
@@ -6868,16 +6868,16 @@
         <v>99.2</v>
       </c>
       <c r="N88" t="n" s="10">
-        <v>103.2</v>
-      </c>
-      <c r="O88" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P88" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q88" t="s" s="10">
-        <v>23</v>
+        <v>101.5</v>
+      </c>
+      <c r="O88" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="P88" t="n" s="10">
+        <v>90.9</v>
+      </c>
+      <c r="Q88" t="n" s="10">
+        <v>93.3</v>
       </c>
       <c r="R88" t="s" s="10">
         <v>23</v>
@@ -6945,16 +6945,16 @@
         <v>97.8</v>
       </c>
       <c r="N89" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="O89" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P89" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q89" t="s" s="10">
-        <v>23</v>
+        <v>101.9</v>
+      </c>
+      <c r="O89" t="n" s="10">
+        <v>99.1</v>
+      </c>
+      <c r="P89" t="n" s="10">
+        <v>90.1</v>
+      </c>
+      <c r="Q89" t="n" s="10">
+        <v>93.8</v>
       </c>
       <c r="R89" t="s" s="10">
         <v>23</v>
@@ -6989,7 +6989,7 @@
         <v>89.0</v>
       </c>
       <c r="C90" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="D90" t="n" s="10">
         <v>87.9</v>
@@ -6998,7 +6998,7 @@
         <v>93.0</v>
       </c>
       <c r="F90" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="G90" t="n" s="10">
         <v>88.0</v>
@@ -7007,31 +7007,31 @@
         <v>86.1</v>
       </c>
       <c r="I90" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="J90" t="n" s="10">
-        <v>91.2</v>
+        <v>91.0</v>
       </c>
       <c r="K90" t="n" s="10">
-        <v>89.5</v>
+        <v>89.9</v>
       </c>
       <c r="L90" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="M90" t="n" s="10">
         <v>89.6</v>
       </c>
       <c r="N90" t="n" s="10">
-        <v>90.8</v>
-      </c>
-      <c r="O90" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P90" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q90" t="s" s="10">
-        <v>23</v>
+        <v>89.3</v>
+      </c>
+      <c r="O90" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="P90" t="n" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="Q90" t="n" s="10">
+        <v>97.7</v>
       </c>
       <c r="R90" t="s" s="10">
         <v>23</v>
@@ -7063,52 +7063,52 @@
         <v>26</v>
       </c>
       <c r="B91" t="n" s="10">
-        <v>87.6</v>
+        <v>88.1</v>
       </c>
       <c r="C91" t="n" s="10">
-        <v>86.5</v>
+        <v>85.8</v>
       </c>
       <c r="D91" t="n" s="10">
-        <v>88.5</v>
+        <v>89.4</v>
       </c>
       <c r="E91" t="n" s="10">
+        <v>89.1</v>
+      </c>
+      <c r="F91" t="n" s="10">
+        <v>92.9</v>
+      </c>
+      <c r="G91" t="n" s="10">
         <v>89.7</v>
       </c>
-      <c r="F91" t="n" s="10">
-        <v>93.4</v>
-      </c>
-      <c r="G91" t="n" s="10">
-        <v>89.9</v>
-      </c>
       <c r="H91" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="I91" t="n" s="10">
         <v>88.1</v>
       </c>
       <c r="J91" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="K91" t="n" s="10">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
       <c r="L91" t="n" s="10">
         <v>88.5</v>
       </c>
       <c r="M91" t="n" s="10">
-        <v>89.0</v>
+        <v>89.5</v>
       </c>
       <c r="N91" t="n" s="10">
-        <v>89.1</v>
-      </c>
-      <c r="O91" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P91" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q91" t="s" s="10">
-        <v>23</v>
+        <v>88.6</v>
+      </c>
+      <c r="O91" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="P91" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="Q91" t="n" s="10">
+        <v>92.3</v>
       </c>
       <c r="R91" t="s" s="10">
         <v>23</v>
@@ -7140,7 +7140,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="C92" t="n" s="10">
         <v>88.6</v>
@@ -7149,43 +7149,43 @@
         <v>88.9</v>
       </c>
       <c r="E92" t="n" s="10">
+        <v>89.0</v>
+      </c>
+      <c r="F92" t="n" s="10">
         <v>89.2</v>
       </c>
-      <c r="F92" t="n" s="10">
+      <c r="G92" t="n" s="10">
+        <v>89.4</v>
+      </c>
+      <c r="H92" t="n" s="10">
         <v>89.5</v>
       </c>
-      <c r="G92" t="n" s="10">
-        <v>89.7</v>
-      </c>
-      <c r="H92" t="n" s="10">
-        <v>89.8</v>
-      </c>
       <c r="I92" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="J92" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="K92" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="L92" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="M92" t="n" s="10">
-        <v>89.3</v>
+        <v>89.8</v>
       </c>
       <c r="N92" t="n" s="10">
-        <v>89.0</v>
-      </c>
-      <c r="O92" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P92" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q92" t="s" s="10">
-        <v>23</v>
+        <v>90.1</v>
+      </c>
+      <c r="O92" t="n" s="10">
+        <v>90.4</v>
+      </c>
+      <c r="P92" t="n" s="10">
+        <v>90.6</v>
+      </c>
+      <c r="Q92" t="n" s="10">
+        <v>90.6</v>
       </c>
       <c r="R92" t="s" s="10">
         <v>23</v>
@@ -7258,16 +7258,16 @@
         <v>128.1</v>
       </c>
       <c r="N94" t="n" s="10">
-        <v>83.7</v>
-      </c>
-      <c r="O94" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P94" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q94" t="s" s="10">
-        <v>23</v>
+        <v>83.3</v>
+      </c>
+      <c r="O94" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="P94" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="Q94" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="R94" t="s" s="10">
         <v>23</v>
@@ -7305,16 +7305,16 @@
         <v>88.9</v>
       </c>
       <c r="D95" t="n" s="10">
-        <v>119.0</v>
+        <v>119.1</v>
       </c>
       <c r="E95" t="n" s="10">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="F95" t="n" s="10">
         <v>117.6</v>
       </c>
       <c r="G95" t="n" s="10">
-        <v>120.8</v>
+        <v>120.9</v>
       </c>
       <c r="H95" t="n" s="10">
         <v>123.2</v>
@@ -7323,28 +7323,28 @@
         <v>113.1</v>
       </c>
       <c r="J95" t="n" s="10">
-        <v>121.8</v>
+        <v>121.7</v>
       </c>
       <c r="K95" t="n" s="10">
-        <v>124.3</v>
+        <v>124.2</v>
       </c>
       <c r="L95" t="n" s="10">
         <v>127.7</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>122.1</v>
+        <v>123.0</v>
       </c>
       <c r="N95" t="n" s="10">
-        <v>85.7</v>
-      </c>
-      <c r="O95" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P95" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q95" t="s" s="10">
-        <v>23</v>
+        <v>85.2</v>
+      </c>
+      <c r="O95" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="P95" t="n" s="10">
+        <v>117.2</v>
+      </c>
+      <c r="Q95" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="R95" t="s" s="10">
         <v>23</v>
@@ -7376,52 +7376,52 @@
         <v>25</v>
       </c>
       <c r="B96" t="n" s="10">
-        <v>111.1</v>
+        <v>110.3</v>
       </c>
       <c r="C96" t="n" s="10">
-        <v>110.5</v>
+        <v>109.3</v>
       </c>
       <c r="D96" t="n" s="10">
         <v>119.6</v>
       </c>
       <c r="E96" t="n" s="10">
-        <v>116.9</v>
+        <v>116.4</v>
       </c>
       <c r="F96" t="n" s="10">
-        <v>118.1</v>
+        <v>117.2</v>
       </c>
       <c r="G96" t="n" s="10">
-        <v>115.2</v>
+        <v>115.5</v>
       </c>
       <c r="H96" t="n" s="10">
-        <v>115.2</v>
+        <v>115.0</v>
       </c>
       <c r="I96" t="n" s="10">
-        <v>112.4</v>
+        <v>112.7</v>
       </c>
       <c r="J96" t="n" s="10">
-        <v>113.8</v>
+        <v>114.2</v>
       </c>
       <c r="K96" t="n" s="10">
-        <v>114.4</v>
+        <v>114.8</v>
       </c>
       <c r="L96" t="n" s="10">
-        <v>114.1</v>
+        <v>114.6</v>
       </c>
       <c r="M96" t="n" s="10">
-        <v>109.5</v>
+        <v>112.6</v>
       </c>
       <c r="N96" t="n" s="10">
-        <v>120.6</v>
-      </c>
-      <c r="O96" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P96" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q96" t="s" s="10">
-        <v>23</v>
+        <v>119.2</v>
+      </c>
+      <c r="O96" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="P96" t="n" s="10">
+        <v>117.5</v>
+      </c>
+      <c r="Q96" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="R96" t="s" s="10">
         <v>23</v>
@@ -7453,52 +7453,52 @@
         <v>26</v>
       </c>
       <c r="B97" t="n" s="10">
-        <v>104.1</v>
+        <v>105.9</v>
       </c>
       <c r="C97" t="n" s="10">
-        <v>113.7</v>
+        <v>112.6</v>
       </c>
       <c r="D97" t="n" s="10">
-        <v>118.7</v>
+        <v>118.3</v>
       </c>
       <c r="E97" t="n" s="10">
-        <v>117.8</v>
+        <v>117.4</v>
       </c>
       <c r="F97" t="n" s="10">
-        <v>119.2</v>
+        <v>118.5</v>
       </c>
       <c r="G97" t="n" s="10">
-        <v>117.7</v>
+        <v>117.3</v>
       </c>
       <c r="H97" t="n" s="10">
-        <v>116.4</v>
+        <v>116.2</v>
       </c>
       <c r="I97" t="n" s="10">
-        <v>116.5</v>
+        <v>116.2</v>
       </c>
       <c r="J97" t="n" s="10">
-        <v>116.7</v>
+        <v>116.9</v>
       </c>
       <c r="K97" t="n" s="10">
-        <v>115.1</v>
+        <v>115.6</v>
       </c>
       <c r="L97" t="n" s="10">
-        <v>113.0</v>
+        <v>113.4</v>
       </c>
       <c r="M97" t="n" s="10">
-        <v>107.9</v>
+        <v>108.9</v>
       </c>
       <c r="N97" t="n" s="10">
-        <v>112.4</v>
-      </c>
-      <c r="O97" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P97" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q97" t="s" s="10">
-        <v>23</v>
+        <v>115.0</v>
+      </c>
+      <c r="O97" t="n" s="10">
+        <v>120.3</v>
+      </c>
+      <c r="P97" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="Q97" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="R97" t="s" s="10">
         <v>23</v>
@@ -7530,52 +7530,52 @@
         <v>27</v>
       </c>
       <c r="B98" t="n" s="10">
-        <v>118.7</v>
+        <v>118.0</v>
       </c>
       <c r="C98" t="n" s="10">
-        <v>118.7</v>
+        <v>117.8</v>
       </c>
       <c r="D98" t="n" s="10">
-        <v>118.7</v>
+        <v>117.6</v>
       </c>
       <c r="E98" t="n" s="10">
-        <v>118.5</v>
+        <v>117.3</v>
       </c>
       <c r="F98" t="n" s="10">
-        <v>118.2</v>
+        <v>117.0</v>
       </c>
       <c r="G98" t="n" s="10">
-        <v>117.7</v>
+        <v>116.7</v>
       </c>
       <c r="H98" t="n" s="10">
-        <v>117.3</v>
+        <v>116.3</v>
       </c>
       <c r="I98" t="n" s="10">
-        <v>116.5</v>
+        <v>116.0</v>
       </c>
       <c r="J98" t="n" s="10">
-        <v>115.4</v>
+        <v>115.6</v>
       </c>
       <c r="K98" t="n" s="10">
-        <v>114.2</v>
+        <v>115.0</v>
       </c>
       <c r="L98" t="n" s="10">
-        <v>113.0</v>
+        <v>114.8</v>
       </c>
       <c r="M98" t="n" s="10">
-        <v>112.0</v>
+        <v>114.8</v>
       </c>
       <c r="N98" t="n" s="10">
-        <v>111.2</v>
-      </c>
-      <c r="O98" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P98" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q98" t="s" s="10">
-        <v>23</v>
+        <v>115.0</v>
+      </c>
+      <c r="O98" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="P98" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="Q98" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="R98" t="s" s="10">
         <v>23</v>
@@ -7648,16 +7648,16 @@
         <v>107.6</v>
       </c>
       <c r="N100" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="O100" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P100" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q100" t="s" s="10">
-        <v>23</v>
+        <v>102.7</v>
+      </c>
+      <c r="O100" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="P100" t="n" s="10">
+        <v>149.6</v>
+      </c>
+      <c r="Q100" t="n" s="10">
+        <v>133.6</v>
       </c>
       <c r="R100" t="s" s="10">
         <v>23</v>
@@ -7701,7 +7701,7 @@
         <v>141.2</v>
       </c>
       <c r="F101" t="n" s="10">
-        <v>138.3</v>
+        <v>138.2</v>
       </c>
       <c r="G101" t="n" s="10">
         <v>142.2</v>
@@ -7713,7 +7713,7 @@
         <v>131.2</v>
       </c>
       <c r="J101" t="n" s="10">
-        <v>146.1</v>
+        <v>146.0</v>
       </c>
       <c r="K101" t="n" s="10">
         <v>146.1</v>
@@ -7725,16 +7725,16 @@
         <v>104.8</v>
       </c>
       <c r="N101" t="n" s="10">
-        <v>104.7</v>
-      </c>
-      <c r="O101" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P101" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q101" t="s" s="10">
-        <v>23</v>
+        <v>105.2</v>
+      </c>
+      <c r="O101" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="P101" t="n" s="10">
+        <v>141.0</v>
+      </c>
+      <c r="Q101" t="n" s="10">
+        <v>138.7</v>
       </c>
       <c r="R101" t="s" s="10">
         <v>23</v>
@@ -7766,52 +7766,52 @@
         <v>25</v>
       </c>
       <c r="B102" t="n" s="10">
-        <v>125.4</v>
+        <v>125.1</v>
       </c>
       <c r="C102" t="n" s="10">
-        <v>122.2</v>
+        <v>120.4</v>
       </c>
       <c r="D102" t="n" s="10">
-        <v>140.3</v>
+        <v>140.1</v>
       </c>
       <c r="E102" t="n" s="10">
-        <v>133.5</v>
+        <v>133.3</v>
       </c>
       <c r="F102" t="n" s="10">
         <v>132.5</v>
       </c>
       <c r="G102" t="n" s="10">
+        <v>132.3</v>
+      </c>
+      <c r="H102" t="n" s="10">
         <v>132.4</v>
       </c>
-      <c r="H102" t="n" s="10">
-        <v>132.3</v>
-      </c>
       <c r="I102" t="n" s="10">
-        <v>127.9</v>
+        <v>128.3</v>
       </c>
       <c r="J102" t="n" s="10">
-        <v>131.9</v>
+        <v>132.4</v>
       </c>
       <c r="K102" t="n" s="10">
-        <v>133.1</v>
+        <v>133.5</v>
       </c>
       <c r="L102" t="n" s="10">
-        <v>133.3</v>
+        <v>133.7</v>
       </c>
       <c r="M102" t="n" s="10">
-        <v>129.3</v>
+        <v>130.4</v>
       </c>
       <c r="N102" t="n" s="10">
         <v>137.4</v>
       </c>
-      <c r="O102" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P102" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q102" t="s" s="10">
-        <v>23</v>
+      <c r="O102" t="n" s="10">
+        <v>138.1</v>
+      </c>
+      <c r="P102" t="n" s="10">
+        <v>139.2</v>
+      </c>
+      <c r="Q102" t="n" s="10">
+        <v>130.7</v>
       </c>
       <c r="R102" t="s" s="10">
         <v>23</v>
@@ -7843,52 +7843,52 @@
         <v>26</v>
       </c>
       <c r="B103" t="n" s="10">
-        <v>123.8</v>
+        <v>124.6</v>
       </c>
       <c r="C103" t="n" s="10">
         <v>125.9</v>
       </c>
       <c r="D103" t="n" s="10">
-        <v>145.3</v>
+        <v>140.9</v>
       </c>
       <c r="E103" t="n" s="10">
-        <v>132.1</v>
+        <v>133.3</v>
       </c>
       <c r="F103" t="n" s="10">
+        <v>131.1</v>
+      </c>
+      <c r="G103" t="n" s="10">
+        <v>133.3</v>
+      </c>
+      <c r="H103" t="n" s="10">
+        <v>131.3</v>
+      </c>
+      <c r="I103" t="n" s="10">
         <v>130.9</v>
       </c>
-      <c r="G103" t="n" s="10">
-        <v>133.6</v>
-      </c>
-      <c r="H103" t="n" s="10">
-        <v>130.6</v>
-      </c>
-      <c r="I103" t="n" s="10">
-        <v>130.2</v>
-      </c>
       <c r="J103" t="n" s="10">
-        <v>132.1</v>
+        <v>132.5</v>
       </c>
       <c r="K103" t="n" s="10">
-        <v>131.3</v>
+        <v>132.3</v>
       </c>
       <c r="L103" t="n" s="10">
-        <v>131.1</v>
+        <v>131.7</v>
       </c>
       <c r="M103" t="n" s="10">
-        <v>129.8</v>
+        <v>130.9</v>
       </c>
       <c r="N103" t="n" s="10">
-        <v>135.5</v>
-      </c>
-      <c r="O103" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P103" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q103" t="s" s="10">
-        <v>23</v>
+        <v>137.4</v>
+      </c>
+      <c r="O103" t="n" s="10">
+        <v>141.8</v>
+      </c>
+      <c r="P103" t="n" s="10">
+        <v>138.2</v>
+      </c>
+      <c r="Q103" t="n" s="10">
+        <v>130.8</v>
       </c>
       <c r="R103" t="s" s="10">
         <v>23</v>
@@ -7920,52 +7920,52 @@
         <v>27</v>
       </c>
       <c r="B104" t="n" s="10">
-        <v>129.3</v>
+        <v>129.7</v>
       </c>
       <c r="C104" t="n" s="10">
-        <v>129.4</v>
+        <v>129.9</v>
       </c>
       <c r="D104" t="n" s="10">
-        <v>129.5</v>
+        <v>130.2</v>
       </c>
       <c r="E104" t="n" s="10">
-        <v>129.7</v>
+        <v>130.5</v>
       </c>
       <c r="F104" t="n" s="10">
-        <v>129.9</v>
+        <v>130.8</v>
       </c>
       <c r="G104" t="n" s="10">
-        <v>130.2</v>
+        <v>131.2</v>
       </c>
       <c r="H104" t="n" s="10">
-        <v>130.7</v>
+        <v>131.7</v>
       </c>
       <c r="I104" t="n" s="10">
-        <v>130.9</v>
+        <v>132.1</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>131.3</v>
+        <v>132.6</v>
       </c>
       <c r="K104" t="n" s="10">
-        <v>131.7</v>
+        <v>133.2</v>
       </c>
       <c r="L104" t="n" s="10">
-        <v>132.1</v>
+        <v>133.9</v>
       </c>
       <c r="M104" t="n" s="10">
-        <v>132.4</v>
+        <v>134.4</v>
       </c>
       <c r="N104" t="n" s="10">
-        <v>132.8</v>
-      </c>
-      <c r="O104" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P104" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q104" t="s" s="10">
-        <v>23</v>
+        <v>134.8</v>
+      </c>
+      <c r="O104" t="n" s="10">
+        <v>135.1</v>
+      </c>
+      <c r="P104" t="n" s="10">
+        <v>135.6</v>
+      </c>
+      <c r="Q104" t="n" s="10">
+        <v>136.2</v>
       </c>
       <c r="R104" t="s" s="10">
         <v>23</v>
@@ -8038,16 +8038,16 @@
         <v>109.5</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="O106" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P106" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q106" t="s" s="10">
-        <v>23</v>
+        <v>108.4</v>
+      </c>
+      <c r="O106" t="n" s="10">
+        <v>124.1</v>
+      </c>
+      <c r="P106" t="n" s="10">
+        <v>151.0</v>
+      </c>
+      <c r="Q106" t="n" s="10">
+        <v>134.0</v>
       </c>
       <c r="R106" t="s" s="10">
         <v>23</v>
@@ -8091,7 +8091,7 @@
         <v>141.7</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>138.9</v>
+        <v>138.8</v>
       </c>
       <c r="G107" t="n" s="10">
         <v>141.9</v>
@@ -8115,16 +8115,16 @@
         <v>106.1</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>110.8</v>
-      </c>
-      <c r="O107" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P107" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q107" t="s" s="10">
-        <v>23</v>
+        <v>111.0</v>
+      </c>
+      <c r="O107" t="n" s="10">
+        <v>123.4</v>
+      </c>
+      <c r="P107" t="n" s="10">
+        <v>142.4</v>
+      </c>
+      <c r="Q107" t="n" s="10">
+        <v>139.0</v>
       </c>
       <c r="R107" t="s" s="10">
         <v>23</v>
@@ -8156,16 +8156,16 @@
         <v>25</v>
       </c>
       <c r="B108" t="n" s="10">
-        <v>127.2</v>
+        <v>126.8</v>
       </c>
       <c r="C108" t="n" s="10">
-        <v>125.7</v>
+        <v>123.5</v>
       </c>
       <c r="D108" t="n" s="10">
-        <v>141.8</v>
+        <v>141.6</v>
       </c>
       <c r="E108" t="n" s="10">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="F108" t="n" s="10">
         <v>134.0</v>
@@ -8177,31 +8177,31 @@
         <v>133.7</v>
       </c>
       <c r="I108" t="n" s="10">
-        <v>129.1</v>
+        <v>129.5</v>
       </c>
       <c r="J108" t="n" s="10">
-        <v>132.7</v>
+        <v>133.4</v>
       </c>
       <c r="K108" t="n" s="10">
-        <v>133.7</v>
+        <v>134.1</v>
       </c>
       <c r="L108" t="n" s="10">
-        <v>134.4</v>
+        <v>134.7</v>
       </c>
       <c r="M108" t="n" s="10">
-        <v>130.2</v>
+        <v>131.4</v>
       </c>
       <c r="N108" t="n" s="10">
-        <v>138.9</v>
-      </c>
-      <c r="O108" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P108" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q108" t="s" s="10">
-        <v>23</v>
+        <v>138.6</v>
+      </c>
+      <c r="O108" t="n" s="10">
+        <v>139.0</v>
+      </c>
+      <c r="P108" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="Q108" t="n" s="10">
+        <v>132.1</v>
       </c>
       <c r="R108" t="s" s="10">
         <v>23</v>
@@ -8233,52 +8233,52 @@
         <v>26</v>
       </c>
       <c r="B109" t="n" s="10">
-        <v>125.0</v>
+        <v>125.8</v>
       </c>
       <c r="C109" t="n" s="10">
-        <v>127.6</v>
+        <v>127.9</v>
       </c>
       <c r="D109" t="n" s="10">
-        <v>147.4</v>
+        <v>143.3</v>
       </c>
       <c r="E109" t="n" s="10">
-        <v>133.7</v>
+        <v>134.8</v>
       </c>
       <c r="F109" t="n" s="10">
+        <v>132.8</v>
+      </c>
+      <c r="G109" t="n" s="10">
+        <v>134.8</v>
+      </c>
+      <c r="H109" t="n" s="10">
+        <v>132.5</v>
+      </c>
+      <c r="I109" t="n" s="10">
+        <v>132.0</v>
+      </c>
+      <c r="J109" t="n" s="10">
+        <v>133.6</v>
+      </c>
+      <c r="K109" t="n" s="10">
+        <v>133.2</v>
+      </c>
+      <c r="L109" t="n" s="10">
         <v>132.6</v>
       </c>
-      <c r="G109" t="n" s="10">
-        <v>135.1</v>
-      </c>
-      <c r="H109" t="n" s="10">
-        <v>131.8</v>
-      </c>
-      <c r="I109" t="n" s="10">
-        <v>131.3</v>
-      </c>
-      <c r="J109" t="n" s="10">
-        <v>133.3</v>
-      </c>
-      <c r="K109" t="n" s="10">
-        <v>132.3</v>
-      </c>
-      <c r="L109" t="n" s="10">
-        <v>132.2</v>
-      </c>
       <c r="M109" t="n" s="10">
-        <v>131.2</v>
+        <v>132.1</v>
       </c>
       <c r="N109" t="n" s="10">
-        <v>137.1</v>
-      </c>
-      <c r="O109" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P109" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q109" t="s" s="10">
-        <v>23</v>
+        <v>138.5</v>
+      </c>
+      <c r="O109" t="n" s="10">
+        <v>141.8</v>
+      </c>
+      <c r="P109" t="n" s="10">
+        <v>138.7</v>
+      </c>
+      <c r="Q109" t="n" s="10">
+        <v>132.0</v>
       </c>
       <c r="R109" t="s" s="10">
         <v>23</v>
@@ -8310,52 +8310,52 @@
         <v>27</v>
       </c>
       <c r="B110" t="n" s="10">
-        <v>130.9</v>
+        <v>131.2</v>
       </c>
       <c r="C110" t="n" s="10">
-        <v>131.0</v>
+        <v>131.4</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>131.0</v>
+        <v>131.7</v>
       </c>
       <c r="E110" t="n" s="10">
-        <v>131.2</v>
+        <v>131.9</v>
       </c>
       <c r="F110" t="n" s="10">
-        <v>131.4</v>
+        <v>132.2</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>131.7</v>
+        <v>132.6</v>
       </c>
       <c r="H110" t="n" s="10">
-        <v>132.0</v>
+        <v>132.9</v>
       </c>
       <c r="I110" t="n" s="10">
-        <v>132.2</v>
+        <v>133.4</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>132.6</v>
+        <v>133.7</v>
       </c>
       <c r="K110" t="n" s="10">
-        <v>133.0</v>
+        <v>134.2</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>133.4</v>
+        <v>134.9</v>
       </c>
       <c r="M110" t="n" s="10">
-        <v>133.7</v>
+        <v>135.3</v>
       </c>
       <c r="N110" t="n" s="10">
-        <v>134.1</v>
-      </c>
-      <c r="O110" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P110" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q110" t="s" s="10">
-        <v>23</v>
+        <v>135.6</v>
+      </c>
+      <c r="O110" t="n" s="10">
+        <v>135.9</v>
+      </c>
+      <c r="P110" t="n" s="10">
+        <v>136.3</v>
+      </c>
+      <c r="Q110" t="n" s="10">
+        <v>136.8</v>
       </c>
       <c r="R110" t="s" s="10">
         <v>23</v>
@@ -8428,16 +8428,16 @@
         <v>102.9</v>
       </c>
       <c r="N112" t="n" s="10">
-        <v>86.8</v>
-      </c>
-      <c r="O112" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P112" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q112" t="s" s="10">
-        <v>23</v>
+        <v>88.0</v>
+      </c>
+      <c r="O112" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="P112" t="n" s="10">
+        <v>146.0</v>
+      </c>
+      <c r="Q112" t="n" s="10">
+        <v>132.7</v>
       </c>
       <c r="R112" t="s" s="10">
         <v>23</v>
@@ -8469,22 +8469,22 @@
         <v>24</v>
       </c>
       <c r="B113" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="C113" t="n" s="10">
         <v>80.4</v>
       </c>
       <c r="D113" t="n" s="10">
-        <v>134.0</v>
+        <v>133.9</v>
       </c>
       <c r="E113" t="n" s="10">
-        <v>140.0</v>
+        <v>139.9</v>
       </c>
       <c r="F113" t="n" s="10">
-        <v>136.7</v>
+        <v>136.8</v>
       </c>
       <c r="G113" t="n" s="10">
-        <v>143.0</v>
+        <v>142.9</v>
       </c>
       <c r="H113" t="n" s="10">
         <v>144.9</v>
@@ -8493,7 +8493,7 @@
         <v>133.4</v>
       </c>
       <c r="J113" t="n" s="10">
-        <v>148.0</v>
+        <v>147.9</v>
       </c>
       <c r="K113" t="n" s="10">
         <v>148.0</v>
@@ -8502,19 +8502,19 @@
         <v>145.6</v>
       </c>
       <c r="M113" t="n" s="10">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="N113" t="n" s="10">
-        <v>88.9</v>
-      </c>
-      <c r="O113" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P113" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q113" t="s" s="10">
-        <v>23</v>
+        <v>90.2</v>
+      </c>
+      <c r="O113" t="n" s="10">
+        <v>104.1</v>
+      </c>
+      <c r="P113" t="n" s="10">
+        <v>137.3</v>
+      </c>
+      <c r="Q113" t="n" s="10">
+        <v>137.9</v>
       </c>
       <c r="R113" t="s" s="10">
         <v>23</v>
@@ -8546,52 +8546,52 @@
         <v>25</v>
       </c>
       <c r="B114" t="n" s="10">
-        <v>120.9</v>
+        <v>120.8</v>
       </c>
       <c r="C114" t="n" s="10">
-        <v>113.4</v>
+        <v>112.3</v>
       </c>
       <c r="D114" t="n" s="10">
-        <v>136.5</v>
+        <v>136.2</v>
       </c>
       <c r="E114" t="n" s="10">
-        <v>129.8</v>
+        <v>129.4</v>
       </c>
       <c r="F114" t="n" s="10">
-        <v>128.7</v>
+        <v>128.8</v>
       </c>
       <c r="G114" t="n" s="10">
-        <v>130.2</v>
+        <v>129.9</v>
       </c>
       <c r="H114" t="n" s="10">
-        <v>128.7</v>
+        <v>128.9</v>
       </c>
       <c r="I114" t="n" s="10">
-        <v>124.8</v>
+        <v>125.4</v>
       </c>
       <c r="J114" t="n" s="10">
-        <v>129.7</v>
+        <v>129.9</v>
       </c>
       <c r="K114" t="n" s="10">
-        <v>131.7</v>
+        <v>131.8</v>
       </c>
       <c r="L114" t="n" s="10">
-        <v>130.6</v>
+        <v>131.0</v>
       </c>
       <c r="M114" t="n" s="10">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="N114" t="n" s="10">
-        <v>133.4</v>
-      </c>
-      <c r="O114" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P114" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q114" t="s" s="10">
-        <v>23</v>
+        <v>134.5</v>
+      </c>
+      <c r="O114" t="n" s="10">
+        <v>135.8</v>
+      </c>
+      <c r="P114" t="n" s="10">
+        <v>139.4</v>
+      </c>
+      <c r="Q114" t="n" s="10">
+        <v>127.2</v>
       </c>
       <c r="R114" t="s" s="10">
         <v>23</v>
@@ -8623,52 +8623,52 @@
         <v>26</v>
       </c>
       <c r="B115" t="n" s="10">
-        <v>120.6</v>
+        <v>121.4</v>
       </c>
       <c r="C115" t="n" s="10">
-        <v>120.4</v>
+        <v>119.1</v>
       </c>
       <c r="D115" t="n" s="10">
-        <v>140.5</v>
+        <v>136.4</v>
       </c>
       <c r="E115" t="n" s="10">
-        <v>127.5</v>
+        <v>129.0</v>
       </c>
       <c r="F115" t="n" s="10">
-        <v>126.9</v>
+        <v>127.1</v>
       </c>
       <c r="G115" t="n" s="10">
-        <v>129.8</v>
+        <v>129.7</v>
       </c>
       <c r="H115" t="n" s="10">
-        <v>127.1</v>
+        <v>127.6</v>
       </c>
       <c r="I115" t="n" s="10">
-        <v>127.5</v>
+        <v>127.9</v>
       </c>
       <c r="J115" t="n" s="10">
-        <v>129.3</v>
+        <v>129.7</v>
       </c>
       <c r="K115" t="n" s="10">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="L115" t="n" s="10">
-        <v>128.4</v>
+        <v>129.0</v>
       </c>
       <c r="M115" t="n" s="10">
-        <v>126.6</v>
+        <v>127.9</v>
       </c>
       <c r="N115" t="n" s="10">
-        <v>133.0</v>
-      </c>
-      <c r="O115" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P115" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q115" t="s" s="10">
-        <v>23</v>
+        <v>134.8</v>
+      </c>
+      <c r="O115" t="n" s="10">
+        <v>141.1</v>
+      </c>
+      <c r="P115" t="n" s="10">
+        <v>137.2</v>
+      </c>
+      <c r="Q115" t="n" s="10">
+        <v>127.7</v>
       </c>
       <c r="R115" t="s" s="10">
         <v>23</v>
@@ -8700,52 +8700,52 @@
         <v>27</v>
       </c>
       <c r="B116" t="n" s="10">
-        <v>125.4</v>
+        <v>125.6</v>
       </c>
       <c r="C116" t="n" s="10">
-        <v>125.5</v>
+        <v>125.6</v>
       </c>
       <c r="D116" t="n" s="10">
-        <v>125.6</v>
+        <v>126.1</v>
       </c>
       <c r="E116" t="n" s="10">
-        <v>125.7</v>
+        <v>126.5</v>
       </c>
       <c r="F116" t="n" s="10">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="G116" t="n" s="10">
-        <v>126.5</v>
+        <v>127.5</v>
       </c>
       <c r="H116" t="n" s="10">
-        <v>127.2</v>
+        <v>128.1</v>
       </c>
       <c r="I116" t="n" s="10">
-        <v>127.6</v>
+        <v>128.8</v>
       </c>
       <c r="J116" t="n" s="10">
-        <v>128.0</v>
+        <v>129.5</v>
       </c>
       <c r="K116" t="n" s="10">
-        <v>128.5</v>
+        <v>130.3</v>
       </c>
       <c r="L116" t="n" s="10">
-        <v>129.0</v>
+        <v>131.4</v>
       </c>
       <c r="M116" t="n" s="10">
-        <v>129.5</v>
+        <v>132.0</v>
       </c>
       <c r="N116" t="n" s="10">
-        <v>130.1</v>
-      </c>
-      <c r="O116" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P116" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q116" t="s" s="10">
-        <v>23</v>
+        <v>132.6</v>
+      </c>
+      <c r="O116" t="n" s="10">
+        <v>133.0</v>
+      </c>
+      <c r="P116" t="n" s="10">
+        <v>133.7</v>
+      </c>
+      <c r="Q116" t="n" s="10">
+        <v>134.4</v>
       </c>
       <c r="R116" t="s" s="10">
         <v>23</v>
@@ -8818,16 +8818,16 @@
         <v>143.6</v>
       </c>
       <c r="N118" t="n" s="10">
-        <v>69.8</v>
-      </c>
-      <c r="O118" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P118" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q118" t="s" s="10">
-        <v>23</v>
+        <v>68.7</v>
+      </c>
+      <c r="O118" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="P118" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="Q118" t="n" s="10">
+        <v>93.8</v>
       </c>
       <c r="R118" t="s" s="10">
         <v>23</v>
@@ -8865,16 +8865,16 @@
         <v>80.4</v>
       </c>
       <c r="D119" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="E119" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="F119" t="n" s="10">
         <v>102.0</v>
       </c>
       <c r="G119" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="H119" t="n" s="10">
         <v>106.5</v>
@@ -8886,25 +8886,25 @@
         <v>103.4</v>
       </c>
       <c r="K119" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="L119" t="n" s="10">
         <v>115.1</v>
       </c>
       <c r="M119" t="n" s="10">
-        <v>135.2</v>
+        <v>136.8</v>
       </c>
       <c r="N119" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="O119" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P119" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q119" t="s" s="10">
-        <v>23</v>
+        <v>70.1</v>
+      </c>
+      <c r="O119" t="n" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="P119" t="n" s="10">
+        <v>99.3</v>
+      </c>
+      <c r="Q119" t="n" s="10">
+        <v>96.8</v>
       </c>
       <c r="R119" t="s" s="10">
         <v>23</v>
@@ -8936,52 +8936,52 @@
         <v>25</v>
       </c>
       <c r="B120" t="n" s="10">
-        <v>100.3</v>
+        <v>99.1</v>
       </c>
       <c r="C120" t="n" s="10">
-        <v>101.6</v>
+        <v>101.0</v>
       </c>
       <c r="D120" t="n" s="10">
-        <v>104.0</v>
+        <v>104.2</v>
       </c>
       <c r="E120" t="n" s="10">
-        <v>104.3</v>
+        <v>103.6</v>
       </c>
       <c r="F120" t="n" s="10">
-        <v>107.2</v>
+        <v>105.6</v>
       </c>
       <c r="G120" t="n" s="10">
-        <v>102.3</v>
+        <v>102.9</v>
       </c>
       <c r="H120" t="n" s="10">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="I120" t="n" s="10">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="J120" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="K120" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="L120" t="n" s="10">
         <v>100.2</v>
       </c>
-      <c r="K120" t="n" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="L120" t="n" s="10">
-        <v>99.6</v>
-      </c>
       <c r="M120" t="n" s="10">
-        <v>94.6</v>
+        <v>99.1</v>
       </c>
       <c r="N120" t="n" s="10">
-        <v>108.0</v>
-      </c>
-      <c r="O120" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P120" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q120" t="s" s="10">
-        <v>23</v>
+        <v>105.4</v>
+      </c>
+      <c r="O120" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="P120" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="Q120" t="n" s="10">
+        <v>103.1</v>
       </c>
       <c r="R120" t="s" s="10">
         <v>23</v>
@@ -9013,52 +9013,52 @@
         <v>26</v>
       </c>
       <c r="B121" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="C121" t="n" s="10">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="D121" t="n" s="10">
-        <v>101.1</v>
+        <v>101.7</v>
       </c>
       <c r="E121" t="n" s="10">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="F121" t="n" s="10">
-        <v>105.5</v>
+        <v>105.3</v>
       </c>
       <c r="G121" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="H121" t="n" s="10">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="I121" t="n" s="10">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="J121" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="K121" t="n" s="10">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="L121" t="n" s="10">
-        <v>99.1</v>
+        <v>98.5</v>
       </c>
       <c r="M121" t="n" s="10">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="N121" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="O121" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P121" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q121" t="s" s="10">
-        <v>23</v>
+        <v>104.7</v>
+      </c>
+      <c r="O121" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="P121" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="Q121" t="n" s="10">
+        <v>102.5</v>
       </c>
       <c r="R121" t="s" s="10">
         <v>23</v>
@@ -9093,49 +9093,49 @@
         <v>102.9</v>
       </c>
       <c r="C122" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="D122" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="E122" t="n" s="10">
         <v>102.7</v>
       </c>
-      <c r="D122" t="n" s="10">
+      <c r="F122" t="n" s="10">
         <v>102.6</v>
       </c>
-      <c r="E122" t="n" s="10">
-        <v>102.6</v>
-      </c>
-      <c r="F122" t="n" s="10">
+      <c r="G122" t="n" s="10">
         <v>102.5</v>
       </c>
-      <c r="G122" t="n" s="10">
+      <c r="H122" t="n" s="10">
         <v>102.4</v>
       </c>
-      <c r="H122" t="n" s="10">
+      <c r="I122" t="n" s="10">
         <v>102.3</v>
       </c>
-      <c r="I122" t="n" s="10">
+      <c r="J122" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="J122" t="n" s="10">
+      <c r="K122" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="L122" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="M122" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="N122" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="O122" t="n" s="10">
         <v>102.2</v>
       </c>
-      <c r="K122" t="n" s="10">
-        <v>102.3</v>
-      </c>
-      <c r="L122" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="M122" t="n" s="10">
-        <v>102.6</v>
-      </c>
-      <c r="N122" t="n" s="10">
-        <v>102.6</v>
-      </c>
-      <c r="O122" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P122" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q122" t="s" s="10">
-        <v>23</v>
+      <c r="P122" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="Q122" t="n" s="10">
+        <v>102.2</v>
       </c>
       <c r="R122" t="s" s="10">
         <v>23</v>
@@ -9208,16 +9208,16 @@
         <v>93.0</v>
       </c>
       <c r="N124" t="n" s="10">
-        <v>88.0</v>
-      </c>
-      <c r="O124" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P124" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q124" t="s" s="10">
-        <v>23</v>
+        <v>87.3</v>
+      </c>
+      <c r="O124" t="n" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="P124" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="Q124" t="n" s="10">
+        <v>88.9</v>
       </c>
       <c r="R124" t="s" s="10">
         <v>23</v>
@@ -9255,7 +9255,7 @@
         <v>90.9</v>
       </c>
       <c r="D125" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="E125" t="n" s="10">
         <v>94.4</v>
@@ -9264,7 +9264,7 @@
         <v>93.5</v>
       </c>
       <c r="G125" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="H125" t="n" s="10">
         <v>95.9</v>
@@ -9279,22 +9279,22 @@
         <v>96.1</v>
       </c>
       <c r="L125" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="M125" t="n" s="10">
-        <v>90.0</v>
+        <v>89.8</v>
       </c>
       <c r="N125" t="n" s="10">
-        <v>89.6</v>
-      </c>
-      <c r="O125" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P125" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q125" t="s" s="10">
-        <v>23</v>
+        <v>89.0</v>
+      </c>
+      <c r="O125" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="P125" t="n" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="Q125" t="n" s="10">
+        <v>91.7</v>
       </c>
       <c r="R125" t="s" s="10">
         <v>23</v>
@@ -9326,52 +9326,52 @@
         <v>25</v>
       </c>
       <c r="B126" t="n" s="10">
-        <v>97.0</v>
+        <v>96.6</v>
       </c>
       <c r="C126" t="n" s="10">
-        <v>94.8</v>
+        <v>94.6</v>
       </c>
       <c r="D126" t="n" s="10">
-        <v>95.6</v>
+        <v>95.4</v>
       </c>
       <c r="E126" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="F126" t="n" s="10">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="G126" t="n" s="10">
-        <v>94.1</v>
+        <v>94.3</v>
       </c>
       <c r="H126" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="I126" t="n" s="10">
-        <v>91.5</v>
+        <v>92.1</v>
       </c>
       <c r="J126" t="n" s="10">
-        <v>90.4</v>
+        <v>90.8</v>
       </c>
       <c r="K126" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="L126" t="n" s="10">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="M126" t="n" s="10">
-        <v>95.9</v>
+        <v>95.3</v>
       </c>
       <c r="N126" t="n" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="O126" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P126" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q126" t="s" s="10">
-        <v>23</v>
+        <v>95.8</v>
+      </c>
+      <c r="O126" t="n" s="10">
+        <v>96.0</v>
+      </c>
+      <c r="P126" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="Q126" t="n" s="10">
+        <v>92.5</v>
       </c>
       <c r="R126" t="s" s="10">
         <v>23</v>
@@ -9403,52 +9403,52 @@
         <v>26</v>
       </c>
       <c r="B127" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="C127" t="n" s="10">
-        <v>93.7</v>
+        <v>94.4</v>
       </c>
       <c r="D127" t="n" s="10">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="E127" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="F127" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="G127" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="H127" t="n" s="10">
         <v>96.1</v>
-      </c>
-      <c r="F127" t="n" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="G127" t="n" s="10">
-        <v>97.3</v>
-      </c>
-      <c r="H127" t="n" s="10">
-        <v>96.3</v>
       </c>
       <c r="I127" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="J127" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="K127" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="L127" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="M127" t="n" s="10">
-        <v>92.2</v>
+        <v>92.5</v>
       </c>
       <c r="N127" t="n" s="10">
         <v>93.9</v>
       </c>
-      <c r="O127" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P127" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q127" t="s" s="10">
-        <v>23</v>
+      <c r="O127" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P127" t="n" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="Q127" t="n" s="10">
+        <v>92.1</v>
       </c>
       <c r="R127" t="s" s="10">
         <v>23</v>
@@ -9483,49 +9483,49 @@
         <v>94.7</v>
       </c>
       <c r="C128" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="D128" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="E128" t="n" s="10">
         <v>95.1</v>
       </c>
-      <c r="D128" t="n" s="10">
-        <v>95.4</v>
-      </c>
-      <c r="E128" t="n" s="10">
-        <v>95.6</v>
-      </c>
       <c r="F128" t="n" s="10">
-        <v>95.7</v>
+        <v>95.1</v>
       </c>
       <c r="G128" t="n" s="10">
-        <v>95.6</v>
+        <v>95.1</v>
       </c>
       <c r="H128" t="n" s="10">
-        <v>95.3</v>
+        <v>95.0</v>
       </c>
       <c r="I128" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="J128" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="K128" t="n" s="10">
-        <v>94.0</v>
+        <v>93.8</v>
       </c>
       <c r="L128" t="n" s="10">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="M128" t="n" s="10">
+        <v>93.3</v>
+      </c>
+      <c r="N128" t="n" s="10">
         <v>93.1</v>
       </c>
-      <c r="N128" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="O128" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P128" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q128" t="s" s="10">
-        <v>23</v>
+      <c r="O128" t="n" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="P128" t="n" s="10">
+        <v>92.7</v>
+      </c>
+      <c r="Q128" t="n" s="10">
+        <v>92.4</v>
       </c>
       <c r="R128" t="s" s="10">
         <v>23</v>
@@ -9598,16 +9598,16 @@
         <v>111.1</v>
       </c>
       <c r="N130" t="n" s="10">
-        <v>89.7</v>
-      </c>
-      <c r="O130" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P130" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q130" t="s" s="10">
-        <v>23</v>
+        <v>88.3</v>
+      </c>
+      <c r="O130" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="P130" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="Q130" t="n" s="10">
+        <v>92.1</v>
       </c>
       <c r="R130" t="s" s="10">
         <v>23</v>
@@ -9645,7 +9645,7 @@
         <v>94.4</v>
       </c>
       <c r="D131" t="n" s="10">
-        <v>109.2</v>
+        <v>109.4</v>
       </c>
       <c r="E131" t="n" s="10">
         <v>99.3</v>
@@ -9654,7 +9654,7 @@
         <v>97.8</v>
       </c>
       <c r="G131" t="n" s="10">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="H131" t="n" s="10">
         <v>101.8</v>
@@ -9669,22 +9669,22 @@
         <v>102.7</v>
       </c>
       <c r="L131" t="n" s="10">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="M131" t="n" s="10">
-        <v>107.6</v>
+        <v>107.2</v>
       </c>
       <c r="N131" t="n" s="10">
-        <v>91.6</v>
-      </c>
-      <c r="O131" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P131" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q131" t="s" s="10">
-        <v>23</v>
+        <v>90.3</v>
+      </c>
+      <c r="O131" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="P131" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="Q131" t="n" s="10">
+        <v>95.4</v>
       </c>
       <c r="R131" t="s" s="10">
         <v>23</v>
@@ -9716,52 +9716,52 @@
         <v>25</v>
       </c>
       <c r="B132" t="n" s="10">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="C132" t="n" s="10">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D132" t="n" s="10">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="E132" t="n" s="10">
-        <v>101.5</v>
+        <v>101.0</v>
       </c>
       <c r="F132" t="n" s="10">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="G132" t="n" s="10">
-        <v>98.5</v>
+        <v>99.4</v>
       </c>
       <c r="H132" t="n" s="10">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="I132" t="n" s="10">
-        <v>100.9</v>
+        <v>102.6</v>
       </c>
       <c r="J132" t="n" s="10">
-        <v>97.0</v>
+        <v>98.3</v>
       </c>
       <c r="K132" t="n" s="10">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="L132" t="n" s="10">
-        <v>100.3</v>
+        <v>99.9</v>
       </c>
       <c r="M132" t="n" s="10">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="N132" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="O132" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P132" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q132" t="s" s="10">
-        <v>23</v>
+        <v>103.5</v>
+      </c>
+      <c r="O132" t="n" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="P132" t="n" s="10">
+        <v>97.4</v>
+      </c>
+      <c r="Q132" t="n" s="10">
+        <v>96.8</v>
       </c>
       <c r="R132" t="s" s="10">
         <v>23</v>
@@ -9793,52 +9793,52 @@
         <v>26</v>
       </c>
       <c r="B133" t="n" s="10">
-        <v>99.1</v>
+        <v>99.3</v>
       </c>
       <c r="C133" t="n" s="10">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="D133" t="n" s="10">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="E133" t="n" s="10">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="F133" t="n" s="10">
-        <v>107.5</v>
+        <v>106.6</v>
       </c>
       <c r="G133" t="n" s="10">
-        <v>102.7</v>
+        <v>102.3</v>
       </c>
       <c r="H133" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="I133" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="J133" t="n" s="10">
-        <v>99.8</v>
+        <v>100.0</v>
       </c>
       <c r="K133" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="L133" t="n" s="10">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="M133" t="n" s="10">
-        <v>98.3</v>
+        <v>98.6</v>
       </c>
       <c r="N133" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="O133" t="n" s="10">
         <v>100.5</v>
       </c>
-      <c r="O133" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P133" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q133" t="s" s="10">
-        <v>23</v>
+      <c r="P133" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="Q133" t="n" s="10">
+        <v>97.5</v>
       </c>
       <c r="R133" t="s" s="10">
         <v>23</v>
@@ -9876,46 +9876,46 @@
         <v>100.7</v>
       </c>
       <c r="D134" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E134" t="n" s="10">
+        <v>101.5</v>
+      </c>
+      <c r="F134" t="n" s="10">
+        <v>101.8</v>
+      </c>
+      <c r="G134" t="n" s="10">
         <v>102.0</v>
       </c>
-      <c r="F134" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="G134" t="n" s="10">
-        <v>102.8</v>
-      </c>
       <c r="H134" t="n" s="10">
-        <v>102.7</v>
+        <v>102.1</v>
       </c>
       <c r="I134" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="J134" t="n" s="10">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="K134" t="n" s="10">
-        <v>101.4</v>
+        <v>101.0</v>
       </c>
       <c r="L134" t="n" s="10">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="M134" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="N134" t="n" s="10">
-        <v>99.4</v>
-      </c>
-      <c r="O134" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P134" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q134" t="s" s="10">
-        <v>23</v>
+        <v>99.8</v>
+      </c>
+      <c r="O134" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="P134" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="Q134" t="n" s="10">
+        <v>98.4</v>
       </c>
       <c r="R134" t="s" s="10">
         <v>23</v>
@@ -9988,16 +9988,16 @@
         <v>97.9</v>
       </c>
       <c r="N136" t="n" s="10">
-        <v>97.3</v>
-      </c>
-      <c r="O136" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P136" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q136" t="s" s="10">
-        <v>23</v>
+        <v>96.0</v>
+      </c>
+      <c r="O136" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="P136" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="Q136" t="n" s="10">
+        <v>96.5</v>
       </c>
       <c r="R136" t="s" s="10">
         <v>23</v>
@@ -10044,7 +10044,7 @@
         <v>97.6</v>
       </c>
       <c r="G137" t="n" s="10">
-        <v>102.2</v>
+        <v>102.0</v>
       </c>
       <c r="H137" t="n" s="10">
         <v>102.6</v>
@@ -10062,19 +10062,19 @@
         <v>109.6</v>
       </c>
       <c r="M137" t="n" s="10">
-        <v>94.7</v>
+        <v>95.0</v>
       </c>
       <c r="N137" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="O137" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P137" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q137" t="s" s="10">
-        <v>23</v>
+        <v>98.0</v>
+      </c>
+      <c r="O137" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="P137" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="Q137" t="n" s="10">
+        <v>99.7</v>
       </c>
       <c r="R137" t="s" s="10">
         <v>23</v>
@@ -10106,52 +10106,52 @@
         <v>25</v>
       </c>
       <c r="B138" t="n" s="10">
-        <v>98.8</v>
+        <v>97.9</v>
       </c>
       <c r="C138" t="n" s="10">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="D138" t="n" s="10">
-        <v>97.9</v>
+        <v>99.0</v>
       </c>
       <c r="E138" t="n" s="10">
-        <v>99.1</v>
+        <v>99.9</v>
       </c>
       <c r="F138" t="n" s="10">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="G138" t="n" s="10">
+        <v>101.5</v>
+      </c>
+      <c r="H138" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="I138" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="J138" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="K138" t="n" s="10">
+        <v>101.5</v>
+      </c>
+      <c r="L138" t="n" s="10">
         <v>102.4</v>
       </c>
-      <c r="H138" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="I138" t="n" s="10">
-        <v>99.8</v>
-      </c>
-      <c r="J138" t="n" s="10">
-        <v>101.2</v>
-      </c>
-      <c r="K138" t="n" s="10">
-        <v>101.2</v>
-      </c>
-      <c r="L138" t="n" s="10">
-        <v>102.6</v>
-      </c>
       <c r="M138" t="n" s="10">
-        <v>103.8</v>
+        <v>104.4</v>
       </c>
       <c r="N138" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="O138" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P138" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q138" t="s" s="10">
-        <v>23</v>
+        <v>101.5</v>
+      </c>
+      <c r="O138" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="P138" t="n" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="Q138" t="n" s="10">
+        <v>103.9</v>
       </c>
       <c r="R138" t="s" s="10">
         <v>23</v>
@@ -10183,52 +10183,52 @@
         <v>26</v>
       </c>
       <c r="B139" t="n" s="10">
+        <v>97.1</v>
+      </c>
+      <c r="C139" t="n" s="10">
         <v>96.3</v>
       </c>
-      <c r="C139" t="n" s="10">
-        <v>96.7</v>
-      </c>
       <c r="D139" t="n" s="10">
-        <v>101.5</v>
+        <v>100.9</v>
       </c>
       <c r="E139" t="n" s="10">
-        <v>105.3</v>
+        <v>103.9</v>
       </c>
       <c r="F139" t="n" s="10">
-        <v>101.0</v>
+        <v>103.3</v>
       </c>
       <c r="G139" t="n" s="10">
-        <v>103.0</v>
+        <v>102.3</v>
       </c>
       <c r="H139" t="n" s="10">
-        <v>102.5</v>
+        <v>102.2</v>
       </c>
       <c r="I139" t="n" s="10">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="J139" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="K139" t="n" s="10">
         <v>101.2</v>
       </c>
       <c r="L139" t="n" s="10">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="M139" t="n" s="10">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="N139" t="n" s="10">
         <v>102.6</v>
       </c>
-      <c r="O139" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P139" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q139" t="s" s="10">
-        <v>23</v>
+      <c r="O139" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="P139" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="Q139" t="n" s="10">
+        <v>104.7</v>
       </c>
       <c r="R139" t="s" s="10">
         <v>23</v>
@@ -10260,52 +10260,52 @@
         <v>27</v>
       </c>
       <c r="B140" t="n" s="10">
-        <v>98.8</v>
+        <v>98.6</v>
       </c>
       <c r="C140" t="n" s="10">
-        <v>99.6</v>
+        <v>99.4</v>
       </c>
       <c r="D140" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E140" t="n" s="10">
+        <v>100.4</v>
+      </c>
+      <c r="F140" t="n" s="10">
         <v>100.8</v>
       </c>
-      <c r="F140" t="n" s="10">
+      <c r="G140" t="n" s="10">
         <v>101.4</v>
       </c>
-      <c r="G140" t="n" s="10">
-        <v>102.0</v>
-      </c>
       <c r="H140" t="n" s="10">
-        <v>102.3</v>
+        <v>101.8</v>
       </c>
       <c r="I140" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="J140" t="n" s="10">
         <v>102.4</v>
       </c>
       <c r="K140" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="L140" t="n" s="10">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="M140" t="n" s="10">
-        <v>102.3</v>
+        <v>103.2</v>
       </c>
       <c r="N140" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="O140" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P140" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q140" t="s" s="10">
-        <v>23</v>
+        <v>103.7</v>
+      </c>
+      <c r="O140" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="P140" t="n" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="Q140" t="n" s="10">
+        <v>105.0</v>
       </c>
       <c r="R140" t="s" s="10">
         <v>23</v>
@@ -10378,16 +10378,16 @@
         <v>99.3</v>
       </c>
       <c r="N142" t="n" s="10">
-        <v>100.6</v>
-      </c>
-      <c r="O142" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P142" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q142" t="s" s="10">
-        <v>23</v>
+        <v>99.8</v>
+      </c>
+      <c r="O142" t="n" s="10">
+        <v>98.2</v>
+      </c>
+      <c r="P142" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="Q142" t="n" s="10">
+        <v>102.6</v>
       </c>
       <c r="R142" t="s" s="10">
         <v>23</v>
@@ -10419,7 +10419,7 @@
         <v>24</v>
       </c>
       <c r="B143" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="C143" t="n" s="10">
         <v>88.3</v>
@@ -10452,19 +10452,19 @@
         <v>107.2</v>
       </c>
       <c r="M143" t="n" s="10">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="N143" t="n" s="10">
-        <v>102.0</v>
-      </c>
-      <c r="O143" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P143" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q143" t="s" s="10">
-        <v>23</v>
+        <v>101.2</v>
+      </c>
+      <c r="O143" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="P143" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="Q143" t="n" s="10">
+        <v>105.0</v>
       </c>
       <c r="R143" t="s" s="10">
         <v>23</v>
@@ -10496,52 +10496,52 @@
         <v>25</v>
       </c>
       <c r="B144" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="C144" t="n" s="10">
-        <v>96.7</v>
+        <v>96.4</v>
       </c>
       <c r="D144" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="E144" t="n" s="10">
-        <v>94.6</v>
+        <v>95.1</v>
       </c>
       <c r="F144" t="n" s="10">
-        <v>96.8</v>
+        <v>97.9</v>
       </c>
       <c r="G144" t="n" s="10">
-        <v>104.1</v>
+        <v>103.0</v>
       </c>
       <c r="H144" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="I144" t="n" s="10">
-        <v>99.6</v>
+        <v>99.3</v>
       </c>
       <c r="J144" t="n" s="10">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="K144" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="L144" t="n" s="10">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="M144" t="n" s="10">
-        <v>97.1</v>
+        <v>98.3</v>
       </c>
       <c r="N144" t="n" s="10">
-        <v>106.5</v>
-      </c>
-      <c r="O144" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P144" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q144" t="s" s="10">
-        <v>23</v>
+        <v>105.7</v>
+      </c>
+      <c r="O144" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="P144" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="Q144" t="n" s="10">
+        <v>110.2</v>
       </c>
       <c r="R144" t="s" s="10">
         <v>23</v>
@@ -10573,52 +10573,52 @@
         <v>26</v>
       </c>
       <c r="B145" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="C145" t="n" s="10">
         <v>97.4</v>
       </c>
-      <c r="C145" t="n" s="10">
-        <v>98.2</v>
-      </c>
       <c r="D145" t="n" s="10">
-        <v>99.4</v>
+        <v>99.1</v>
       </c>
       <c r="E145" t="n" s="10">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="F145" t="n" s="10">
-        <v>99.1</v>
+        <v>100.7</v>
       </c>
       <c r="G145" t="n" s="10">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="H145" t="n" s="10">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="I145" t="n" s="10">
+        <v>99.3</v>
+      </c>
+      <c r="J145" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="K145" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="L145" t="n" s="10">
+        <v>100.9</v>
+      </c>
+      <c r="M145" t="n" s="10">
         <v>99.6</v>
       </c>
-      <c r="J145" t="n" s="10">
-        <v>99.9</v>
-      </c>
-      <c r="K145" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="L145" t="n" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="M145" t="n" s="10">
-        <v>97.9</v>
-      </c>
       <c r="N145" t="n" s="10">
-        <v>108.0</v>
-      </c>
-      <c r="O145" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P145" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q145" t="s" s="10">
-        <v>23</v>
+        <v>105.5</v>
+      </c>
+      <c r="O145" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="P145" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="Q145" t="n" s="10">
+        <v>109.6</v>
       </c>
       <c r="R145" t="s" s="10">
         <v>23</v>
@@ -10650,52 +10650,52 @@
         <v>27</v>
       </c>
       <c r="B146" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="C146" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="D146" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="E146" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="F146" t="n" s="10">
+        <v>98.5</v>
+      </c>
+      <c r="G146" t="n" s="10">
         <v>98.8</v>
       </c>
-      <c r="C146" t="n" s="10">
-        <v>98.9</v>
-      </c>
-      <c r="D146" t="n" s="10">
-        <v>98.9</v>
-      </c>
-      <c r="E146" t="n" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="F146" t="n" s="10">
+      <c r="H146" t="n" s="10">
         <v>99.1</v>
       </c>
-      <c r="G146" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="H146" t="n" s="10">
+      <c r="I146" t="n" s="10">
         <v>99.5</v>
       </c>
-      <c r="I146" t="n" s="10">
-        <v>99.6</v>
-      </c>
       <c r="J146" t="n" s="10">
-        <v>99.5</v>
+        <v>100.0</v>
       </c>
       <c r="K146" t="n" s="10">
-        <v>99.4</v>
+        <v>100.5</v>
       </c>
       <c r="L146" t="n" s="10">
-        <v>99.2</v>
+        <v>101.4</v>
       </c>
       <c r="M146" t="n" s="10">
-        <v>99.1</v>
+        <v>102.7</v>
       </c>
       <c r="N146" t="n" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="O146" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P146" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q146" t="s" s="10">
-        <v>23</v>
+        <v>104.0</v>
+      </c>
+      <c r="O146" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="P146" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="Q146" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="R146" t="s" s="10">
         <v>23</v>
@@ -10768,16 +10768,16 @@
         <v>100.1</v>
       </c>
       <c r="N148" t="n" s="10">
-        <v>106.9</v>
-      </c>
-      <c r="O148" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P148" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q148" t="s" s="10">
-        <v>23</v>
+        <v>106.8</v>
+      </c>
+      <c r="O148" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="P148" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="Q148" t="n" s="10">
+        <v>100.4</v>
       </c>
       <c r="R148" t="s" s="10">
         <v>23</v>
@@ -10842,19 +10842,19 @@
         <v>106.5</v>
       </c>
       <c r="M149" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="N149" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="O149" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P149" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q149" t="s" s="10">
-        <v>23</v>
+        <v>108.0</v>
+      </c>
+      <c r="O149" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="P149" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="Q149" t="n" s="10">
+        <v>102.3</v>
       </c>
       <c r="R149" t="s" s="10">
         <v>23</v>
@@ -10886,52 +10886,52 @@
         <v>25</v>
       </c>
       <c r="B150" t="n" s="10">
-        <v>104.2</v>
+        <v>104.5</v>
       </c>
       <c r="C150" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="D150" t="n" s="10">
-        <v>104.7</v>
+        <v>105.0</v>
       </c>
       <c r="E150" t="n" s="10">
-        <v>103.0</v>
+        <v>103.5</v>
       </c>
       <c r="F150" t="n" s="10">
-        <v>107.1</v>
+        <v>106.4</v>
       </c>
       <c r="G150" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="H150" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="I150" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="J150" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="K150" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="L150" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="M150" t="n" s="10">
         <v>106.9</v>
       </c>
-      <c r="K150" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="L150" t="n" s="10">
-        <v>106.9</v>
-      </c>
-      <c r="M150" t="n" s="10">
-        <v>107.5</v>
-      </c>
       <c r="N150" t="n" s="10">
-        <v>104.5</v>
-      </c>
-      <c r="O150" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P150" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q150" t="s" s="10">
-        <v>23</v>
+        <v>104.6</v>
+      </c>
+      <c r="O150" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="P150" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="Q150" t="n" s="10">
+        <v>103.1</v>
       </c>
       <c r="R150" t="s" s="10">
         <v>23</v>
@@ -10963,25 +10963,25 @@
         <v>26</v>
       </c>
       <c r="B151" t="n" s="10">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C151" t="n" s="10">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="D151" t="n" s="10">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="E151" t="n" s="10">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="F151" t="n" s="10">
-        <v>108.4</v>
+        <v>107.9</v>
       </c>
       <c r="G151" t="n" s="10">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="H151" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="I151" t="n" s="10">
         <v>107.1</v>
@@ -10990,25 +10990,25 @@
         <v>106.1</v>
       </c>
       <c r="K151" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="L151" t="n" s="10">
         <v>105.3</v>
       </c>
       <c r="M151" t="n" s="10">
-        <v>104.1</v>
+        <v>104.6</v>
       </c>
       <c r="N151" t="n" s="10">
-        <v>103.4</v>
-      </c>
-      <c r="O151" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P151" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q151" t="s" s="10">
-        <v>23</v>
+        <v>104.0</v>
+      </c>
+      <c r="O151" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="P151" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="Q151" t="n" s="10">
+        <v>104.4</v>
       </c>
       <c r="R151" t="s" s="10">
         <v>23</v>
@@ -11040,52 +11040,52 @@
         <v>27</v>
       </c>
       <c r="B152" t="n" s="10">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="C152" t="n" s="10">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="D152" t="n" s="10">
-        <v>104.2</v>
+        <v>104.0</v>
       </c>
       <c r="E152" t="n" s="10">
-        <v>104.9</v>
+        <v>104.4</v>
       </c>
       <c r="F152" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="G152" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="H152" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="I152" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="J152" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="K152" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="L152" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="M152" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="N152" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="O152" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="P152" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="Q152" t="n" s="10">
         <v>105.5</v>
-      </c>
-      <c r="G152" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="H152" t="n" s="10">
-        <v>106.4</v>
-      </c>
-      <c r="I152" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="J152" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="K152" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="L152" t="n" s="10">
-        <v>105.2</v>
-      </c>
-      <c r="M152" t="n" s="10">
-        <v>104.9</v>
-      </c>
-      <c r="N152" t="n" s="10">
-        <v>104.5</v>
-      </c>
-      <c r="O152" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P152" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q152" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R152" t="s" s="10">
         <v>23</v>
@@ -11158,16 +11158,16 @@
         <v>85.6</v>
       </c>
       <c r="N154" t="n" s="10">
-        <v>90.8</v>
-      </c>
-      <c r="O154" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P154" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q154" t="s" s="10">
-        <v>23</v>
+        <v>91.3</v>
+      </c>
+      <c r="O154" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="P154" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="Q154" t="n" s="10">
+        <v>93.5</v>
       </c>
       <c r="R154" t="s" s="10">
         <v>23</v>
@@ -11205,7 +11205,7 @@
         <v>96.6</v>
       </c>
       <c r="D155" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="E155" t="n" s="10">
         <v>100.9</v>
@@ -11235,16 +11235,16 @@
         <v>82.5</v>
       </c>
       <c r="N155" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="O155" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P155" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q155" t="s" s="10">
-        <v>23</v>
+        <v>93.1</v>
+      </c>
+      <c r="O155" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="P155" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="Q155" t="n" s="10">
+        <v>96.3</v>
       </c>
       <c r="R155" t="s" s="10">
         <v>23</v>
@@ -11276,52 +11276,52 @@
         <v>25</v>
       </c>
       <c r="B156" t="n" s="10">
-        <v>99.4</v>
+        <v>99.2</v>
       </c>
       <c r="C156" t="n" s="10">
-        <v>99.3</v>
+        <v>99.0</v>
       </c>
       <c r="D156" t="n" s="10">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="E156" t="n" s="10">
-        <v>100.3</v>
+        <v>100.0</v>
       </c>
       <c r="F156" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="G156" t="n" s="10">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="H156" t="n" s="10">
-        <v>99.2</v>
+        <v>99.0</v>
       </c>
       <c r="I156" t="n" s="10">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
       <c r="J156" t="n" s="10">
-        <v>96.7</v>
+        <v>97.1</v>
       </c>
       <c r="K156" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="L156" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="M156" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="N156" t="n" s="10">
-        <v>97.6</v>
-      </c>
-      <c r="O156" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P156" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q156" t="s" s="10">
-        <v>23</v>
+        <v>97.9</v>
+      </c>
+      <c r="O156" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="P156" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="Q156" t="n" s="10">
+        <v>95.4</v>
       </c>
       <c r="R156" t="s" s="10">
         <v>23</v>
@@ -11353,52 +11353,52 @@
         <v>26</v>
       </c>
       <c r="B157" t="n" s="10">
-        <v>95.2</v>
+        <v>95.6</v>
       </c>
       <c r="C157" t="n" s="10">
-        <v>96.5</v>
+        <v>98.3</v>
       </c>
       <c r="D157" t="n" s="10">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="E157" t="n" s="10">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="F157" t="n" s="10">
-        <v>106.2</v>
+        <v>104.8</v>
       </c>
       <c r="G157" t="n" s="10">
-        <v>104.1</v>
+        <v>103.0</v>
       </c>
       <c r="H157" t="n" s="10">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="I157" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="J157" t="n" s="10">
-        <v>96.7</v>
+        <v>97.0</v>
       </c>
       <c r="K157" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="L157" t="n" s="10">
         <v>94.7</v>
       </c>
       <c r="M157" t="n" s="10">
-        <v>93.4</v>
+        <v>94.2</v>
       </c>
       <c r="N157" t="n" s="10">
-        <v>94.0</v>
-      </c>
-      <c r="O157" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P157" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q157" t="s" s="10">
-        <v>23</v>
+        <v>95.5</v>
+      </c>
+      <c r="O157" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="P157" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="Q157" t="n" s="10">
+        <v>94.6</v>
       </c>
       <c r="R157" t="s" s="10">
         <v>23</v>
@@ -11430,52 +11430,52 @@
         <v>27</v>
       </c>
       <c r="B158" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="C158" t="n" s="10">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="D158" t="n" s="10">
-        <v>99.5</v>
+        <v>99.1</v>
       </c>
       <c r="E158" t="n" s="10">
-        <v>100.4</v>
+        <v>99.3</v>
       </c>
       <c r="F158" t="n" s="10">
-        <v>101.1</v>
+        <v>99.7</v>
       </c>
       <c r="G158" t="n" s="10">
-        <v>101.4</v>
+        <v>100.0</v>
       </c>
       <c r="H158" t="n" s="10">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="I158" t="n" s="10">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="J158" t="n" s="10">
-        <v>99.4</v>
+        <v>99.2</v>
       </c>
       <c r="K158" t="n" s="10">
-        <v>98.4</v>
+        <v>98.1</v>
       </c>
       <c r="L158" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="M158" t="n" s="10">
-        <v>95.9</v>
+        <v>96.7</v>
       </c>
       <c r="N158" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="O158" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P158" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q158" t="s" s="10">
-        <v>23</v>
+        <v>96.5</v>
+      </c>
+      <c r="O158" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="P158" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="Q158" t="n" s="10">
+        <v>94.7</v>
       </c>
       <c r="R158" t="s" s="10">
         <v>23</v>
@@ -11548,16 +11548,16 @@
         <v>108.7</v>
       </c>
       <c r="N160" t="n" s="10">
-        <v>102.0</v>
-      </c>
-      <c r="O160" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P160" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q160" t="s" s="10">
-        <v>23</v>
+        <v>101.3</v>
+      </c>
+      <c r="O160" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="P160" t="n" s="10">
+        <v>124.8</v>
+      </c>
+      <c r="Q160" t="n" s="10">
+        <v>104.9</v>
       </c>
       <c r="R160" t="s" s="10">
         <v>23</v>
@@ -11592,7 +11592,7 @@
         <v>100.4</v>
       </c>
       <c r="C161" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D161" t="n" s="10">
         <v>116.5</v>
@@ -11607,7 +11607,7 @@
         <v>111.2</v>
       </c>
       <c r="H161" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="I161" t="n" s="10">
         <v>105.3</v>
@@ -11622,19 +11622,19 @@
         <v>111.8</v>
       </c>
       <c r="M161" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="N161" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="O161" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P161" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q161" t="s" s="10">
-        <v>23</v>
+        <v>103.4</v>
+      </c>
+      <c r="O161" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="P161" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="Q161" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="R161" t="s" s="10">
         <v>23</v>
@@ -11666,52 +11666,52 @@
         <v>25</v>
       </c>
       <c r="B162" t="n" s="10">
-        <v>107.1</v>
+        <v>107.0</v>
       </c>
       <c r="C162" t="n" s="10">
-        <v>108.2</v>
+        <v>107.9</v>
       </c>
       <c r="D162" t="n" s="10">
         <v>107.1</v>
       </c>
       <c r="E162" t="n" s="10">
-        <v>110.7</v>
+        <v>109.9</v>
       </c>
       <c r="F162" t="n" s="10">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="G162" t="n" s="10">
-        <v>110.3</v>
+        <v>109.3</v>
       </c>
       <c r="H162" t="n" s="10">
-        <v>110.9</v>
+        <v>110.0</v>
       </c>
       <c r="I162" t="n" s="10">
-        <v>109.3</v>
+        <v>109.0</v>
       </c>
       <c r="J162" t="n" s="10">
-        <v>104.6</v>
+        <v>106.4</v>
       </c>
       <c r="K162" t="n" s="10">
-        <v>106.2</v>
+        <v>107.0</v>
       </c>
       <c r="L162" t="n" s="10">
-        <v>104.8</v>
+        <v>106.1</v>
       </c>
       <c r="M162" t="n" s="10">
         <v>109.0</v>
       </c>
       <c r="N162" t="n" s="10">
-        <v>110.8</v>
-      </c>
-      <c r="O162" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P162" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q162" t="s" s="10">
-        <v>23</v>
+        <v>110.0</v>
+      </c>
+      <c r="O162" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="P162" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="Q162" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="R162" t="s" s="10">
         <v>23</v>
@@ -11743,52 +11743,52 @@
         <v>26</v>
       </c>
       <c r="B163" t="n" s="10">
-        <v>103.2</v>
+        <v>103.9</v>
       </c>
       <c r="C163" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="D163" t="n" s="10">
-        <v>108.6</v>
+        <v>108.2</v>
       </c>
       <c r="E163" t="n" s="10">
-        <v>109.8</v>
+        <v>109.2</v>
       </c>
       <c r="F163" t="n" s="10">
-        <v>113.3</v>
+        <v>112.6</v>
       </c>
       <c r="G163" t="n" s="10">
-        <v>112.9</v>
+        <v>112.2</v>
       </c>
       <c r="H163" t="n" s="10">
-        <v>111.7</v>
+        <v>111.4</v>
       </c>
       <c r="I163" t="n" s="10">
-        <v>109.9</v>
+        <v>110.1</v>
       </c>
       <c r="J163" t="n" s="10">
-        <v>108.2</v>
+        <v>108.7</v>
       </c>
       <c r="K163" t="n" s="10">
-        <v>106.4</v>
+        <v>106.6</v>
       </c>
       <c r="L163" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="M163" t="n" s="10">
-        <v>107.1</v>
+        <v>107.9</v>
       </c>
       <c r="N163" t="n" s="10">
-        <v>107.4</v>
-      </c>
-      <c r="O163" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P163" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q163" t="s" s="10">
-        <v>23</v>
+        <v>108.4</v>
+      </c>
+      <c r="O163" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="P163" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="Q163" t="n" s="10">
+        <v>109.1</v>
       </c>
       <c r="R163" t="s" s="10">
         <v>23</v>
@@ -11820,52 +11820,52 @@
         <v>27</v>
       </c>
       <c r="B164" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="C164" t="n" s="10">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="D164" t="n" s="10">
-        <v>108.0</v>
+        <v>107.6</v>
       </c>
       <c r="E164" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="F164" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="G164" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="H164" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="I164" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="J164" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="K164" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="L164" t="n" s="10">
+        <v>108.8</v>
+      </c>
+      <c r="M164" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="F164" t="n" s="10">
-        <v>110.0</v>
-      </c>
-      <c r="G164" t="n" s="10">
-        <v>110.6</v>
-      </c>
-      <c r="H164" t="n" s="10">
-        <v>110.8</v>
-      </c>
-      <c r="I164" t="n" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="J164" t="n" s="10">
-        <v>110.0</v>
-      </c>
-      <c r="K164" t="n" s="10">
-        <v>109.5</v>
-      </c>
-      <c r="L164" t="n" s="10">
+      <c r="N164" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="O164" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="P164" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="Q164" t="n" s="10">
         <v>109.0</v>
-      </c>
-      <c r="M164" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="N164" t="n" s="10">
-        <v>107.4</v>
-      </c>
-      <c r="O164" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="P164" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q164" t="s" s="10">
-        <v>23</v>
       </c>
       <c r="R164" t="s" s="10">
         <v>23</v>
@@ -11943,7 +11943,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:34:22&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:12:29&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2021.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2021.xlsx
@@ -179,7 +179,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:12:22</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:25:28</t>
   </si>
 </sst>
 </file>
@@ -11943,7 +11943,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:12:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:25:34&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>